--- a/Isotope_Mass_Results.xlsx
+++ b/Isotope_Mass_Results.xlsx
@@ -605,58 +605,58 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>69.42662133041992</v>
+        <v>69.42662133041985</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2647770446840735</v>
+        <v>0.2647770446840679</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05305638046413307</v>
+        <v>0.05305638046413401</v>
       </c>
       <c r="F3" t="n">
-        <v>9832.929730665961</v>
+        <v>9832.929730665952</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05188206793407195</v>
+        <v>0.05188206793407151</v>
       </c>
       <c r="H3" t="n">
-        <v>1.592735038786167e-08</v>
+        <v>1.592735038786313e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03159926926486461</v>
+        <v>0.03159926926486608</v>
       </c>
       <c r="J3" t="n">
-        <v>6.424983434676155e-05</v>
+        <v>6.424983434677979e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>7.090079956601</v>
+        <v>7.090079956602803</v>
       </c>
       <c r="L3" t="n">
-        <v>6.257953850577053e-05</v>
+        <v>6.257953850576386e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>14.82775825693674</v>
+        <v>14.8277582569341</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06221273639682867</v>
+        <v>0.06221273639682059</v>
       </c>
       <c r="O3" t="n">
-        <v>7.880585565838804e-05</v>
+        <v>7.88058556583791e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>6.278068600082092e-08</v>
+        <v>6.278068600080402e-08</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.969423524454922e-12</v>
+        <v>4.969423524453491e-12</v>
       </c>
       <c r="R3" t="n">
-        <v>2.73874053518405e-08</v>
+        <v>2.738740535183311e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>7.335491291385334e-11</v>
+        <v>7.335491291384191e-11</v>
       </c>
       <c r="T3" t="n">
-        <v>3.355853419078313e-11</v>
+        <v>3.355853419077842e-11</v>
       </c>
     </row>
     <row r="4">
@@ -667,58 +667,58 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>67.88810914588097</v>
+        <v>67.88810914588089</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5208231131117187</v>
+        <v>0.5208231131117131</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07204762668758385</v>
+        <v>0.0720476266875876</v>
       </c>
       <c r="F4" t="n">
-        <v>9737.78901079812</v>
+        <v>9737.789010798109</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05138007508718875</v>
+        <v>0.0513800750871888</v>
       </c>
       <c r="H4" t="n">
-        <v>1.024699605437866e-07</v>
+        <v>1.024699605437955e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09624613525108586</v>
+        <v>0.09624613525108427</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0002570346868306739</v>
+        <v>0.0002570346868307568</v>
       </c>
       <c r="K4" t="n">
-        <v>7.387383787892151</v>
+        <v>7.38738378790627</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005606741311228871</v>
+        <v>0.000560674131122875</v>
       </c>
       <c r="M4" t="n">
-        <v>35.819861719896</v>
+        <v>35.81986171988218</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2097202709881545</v>
+        <v>0.2097202709881275</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0005331129122985142</v>
+        <v>0.0005331129122985052</v>
       </c>
       <c r="P4" t="n">
-        <v>8.589148424520185e-07</v>
+        <v>8.589148424519067e-07</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.184013838868861e-11</v>
+        <v>7.184013838867874e-11</v>
       </c>
       <c r="R4" t="n">
-        <v>3.740160039512973e-07</v>
+        <v>3.740160039512484e-07</v>
       </c>
       <c r="S4" t="n">
-        <v>2.019652227080701e-09</v>
+        <v>2.019652227080582e-09</v>
       </c>
       <c r="T4" t="n">
-        <v>9.930118390620167e-10</v>
+        <v>9.930118390619555e-10</v>
       </c>
     </row>
     <row r="5">
@@ -729,58 +729,58 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>66.38369079590858</v>
+        <v>66.38369079590851</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7683626529357928</v>
+        <v>0.7683626529357871</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07882760214729091</v>
+        <v>0.07882760214725808</v>
       </c>
       <c r="F5" t="n">
-        <v>9643.568846331867</v>
+        <v>9643.568846331855</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05088293738386938</v>
+        <v>0.05088293738386957</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8559230663047e-07</v>
+        <v>2.855923066304295e-07</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1716729512245769</v>
+        <v>0.1716729512246124</v>
       </c>
       <c r="J5" t="n">
-        <v>0.000504123902077542</v>
+        <v>0.0005041239020773189</v>
       </c>
       <c r="K5" t="n">
-        <v>7.336551353260623</v>
+        <v>7.336551353203644</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001780681990579361</v>
+        <v>0.001780681990579267</v>
       </c>
       <c r="M5" t="n">
-        <v>56.48725344876324</v>
+        <v>56.48725344882137</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4291124560413556</v>
+        <v>0.4291124560414402</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001620450198544206</v>
+        <v>0.001620450198544045</v>
       </c>
       <c r="P5" t="n">
-        <v>3.917737089489566e-06</v>
+        <v>3.917737089489478e-06</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.337444990808758e-10</v>
+        <v>3.337444990808693e-10</v>
       </c>
       <c r="R5" t="n">
-        <v>1.702921158128686e-06</v>
+        <v>1.702921158128649e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>1.378779291089522e-08</v>
+        <v>1.378779291089222e-08</v>
       </c>
       <c r="T5" t="n">
-        <v>6.963571032645711e-09</v>
+        <v>6.963571032644276e-09</v>
       </c>
     </row>
     <row r="6">
@@ -791,58 +791,58 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>64.91261075218489</v>
+        <v>64.9126107521848</v>
       </c>
       <c r="D6" t="n">
-        <v>1.007614803090243</v>
+        <v>1.007614803090238</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0812119549480082</v>
+        <v>0.08121195494791097</v>
       </c>
       <c r="F6" t="n">
-        <v>9550.260330226698</v>
+        <v>9550.260330226689</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05039060850790732</v>
+        <v>0.05039060850790725</v>
       </c>
       <c r="H6" t="n">
-        <v>5.712815816227075e-07</v>
+        <v>5.712815816225776e-07</v>
       </c>
       <c r="I6" t="n">
-        <v>0.249925378753989</v>
+        <v>0.2499253787540899</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0007675541353635567</v>
+        <v>0.0007675541353639299</v>
       </c>
       <c r="K6" t="n">
-        <v>7.262395139154312</v>
+        <v>7.262395139122936</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003815350230147959</v>
+        <v>0.003815350230146568</v>
       </c>
       <c r="M6" t="n">
-        <v>76.5214796594577</v>
+        <v>76.52147965949251</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7166896109371388</v>
+        <v>0.7166896109371943</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003568481959231391</v>
+        <v>0.003568481959231272</v>
       </c>
       <c r="P6" t="n">
-        <v>1.147710886272873e-05</v>
+        <v>1.147710886272848e-05</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.8670283195804e-10</v>
+        <v>9.867028319580185e-10</v>
       </c>
       <c r="R6" t="n">
-        <v>4.979861057970853e-06</v>
+        <v>4.979861057970746e-06</v>
       </c>
       <c r="S6" t="n">
-        <v>5.358513338075319e-08</v>
+        <v>5.358513338074249e-08</v>
       </c>
       <c r="T6" t="n">
-        <v>2.748125173224541e-08</v>
+        <v>2.748125173224042e-08</v>
       </c>
     </row>
     <row r="7">
@@ -853,58 +853,58 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>63.47413022906182</v>
+        <v>63.47413022906173</v>
       </c>
       <c r="D7" t="n">
-        <v>1.238793515072502</v>
+        <v>1.238793515072498</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0820325682657194</v>
+        <v>0.08203256826568307</v>
       </c>
       <c r="F7" t="n">
-        <v>9457.854641624146</v>
+        <v>9457.854641624137</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04990304285553752</v>
+        <v>0.04990304285553751</v>
       </c>
       <c r="H7" t="n">
-        <v>9.585306018540705e-07</v>
+        <v>9.585306018540302e-07</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3281307056578218</v>
+        <v>0.3281307056578604</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001033291281426146</v>
+        <v>0.001033291281426358</v>
       </c>
       <c r="K7" t="n">
-        <v>7.201234218246619</v>
+        <v>7.201234218252529</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006678101009599204</v>
+        <v>0.006678101009598681</v>
       </c>
       <c r="M7" t="n">
-        <v>95.90224019576912</v>
+        <v>95.90224019576587</v>
       </c>
       <c r="N7" t="n">
-        <v>1.069297346851346</v>
+        <v>1.069297346851355</v>
       </c>
       <c r="O7" t="n">
-        <v>0.006586980506029033</v>
+        <v>0.006586980506029037</v>
       </c>
       <c r="P7" t="n">
-        <v>2.641059558125558e-05</v>
+        <v>2.641059558125516e-05</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.283081009280111e-09</v>
+        <v>2.283081009280075e-09</v>
       </c>
       <c r="R7" t="n">
-        <v>1.143914336666767e-05</v>
+        <v>1.143914336666749e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>1.532360472193215e-07</v>
+        <v>1.532360472193069e-07</v>
       </c>
       <c r="T7" t="n">
-        <v>7.943197859740131e-08</v>
+        <v>7.943197859739429e-08</v>
       </c>
     </row>
     <row r="8">
@@ -915,58 +915,58 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>62.06752681264322</v>
+        <v>62.06752681264314</v>
       </c>
       <c r="D8" t="n">
-        <v>1.462107671447213</v>
+        <v>1.462107671447208</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08227182095682861</v>
+        <v>0.0822718209566317</v>
       </c>
       <c r="F8" t="n">
-        <v>9366.343045014</v>
+        <v>9366.343045013993</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04942019473076019</v>
+        <v>0.04942019473076002</v>
       </c>
       <c r="H8" t="n">
-        <v>1.443829661836926e-06</v>
+        <v>1.443829661836658e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4053022216409121</v>
+        <v>0.4053022216411144</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001296286841099107</v>
+        <v>0.001296286841099131</v>
       </c>
       <c r="K8" t="n">
-        <v>7.122902639798411</v>
+        <v>7.122902639634826</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01035324381784086</v>
+        <v>0.01035324381783873</v>
       </c>
       <c r="M8" t="n">
-        <v>114.6758487712311</v>
+        <v>114.675848771399</v>
       </c>
       <c r="N8" t="n">
-        <v>1.483978768101111</v>
+        <v>1.483978768101392</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01086905717115882</v>
+        <v>0.01086905717115858</v>
       </c>
       <c r="P8" t="n">
-        <v>5.216892378348362e-05</v>
+        <v>5.21689237834843e-05</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.526404568637925e-09</v>
+        <v>4.526404568637987e-09</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2555978228051e-05</v>
+        <v>2.255597822805135e-05</v>
       </c>
       <c r="S8" t="n">
-        <v>3.610557393705658e-07</v>
+        <v>3.610557393704651e-07</v>
       </c>
       <c r="T8" t="n">
-        <v>1.887301795939485e-07</v>
+        <v>1.887301795939011e-07</v>
       </c>
     </row>
     <row r="9">
@@ -977,58 +977,58 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>60.69209409811154</v>
+        <v>60.69209409811148</v>
       </c>
       <c r="D9" t="n">
-        <v>1.677761201677155</v>
+        <v>1.677761201677151</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08227292990583839</v>
+        <v>0.08227292990511048</v>
       </c>
       <c r="F9" t="n">
-        <v>9275.716889408655</v>
+        <v>9275.716889408646</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04894201855277057</v>
+        <v>0.04894201855277054</v>
       </c>
       <c r="H9" t="n">
-        <v>2.022899043336155e-06</v>
+        <v>2.022899043335127e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>0.481105166953632</v>
+        <v>0.4811051669543752</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001555025542145029</v>
+        <v>0.001555025542147164</v>
       </c>
       <c r="K9" t="n">
-        <v>7.052384030685817</v>
+        <v>7.052384030389915</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01481504337524305</v>
+        <v>0.01481504337523286</v>
       </c>
       <c r="M9" t="n">
-        <v>132.8328530071778</v>
+        <v>132.8328530074827</v>
       </c>
       <c r="N9" t="n">
-        <v>1.957783301134766</v>
+        <v>1.957783301135271</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01659218056782802</v>
+        <v>0.01659218056782759</v>
       </c>
       <c r="P9" t="n">
-        <v>9.272468586388839e-05</v>
+        <v>9.272468586389252e-05</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.066461798124106e-09</v>
+        <v>8.066461798124473e-09</v>
       </c>
       <c r="R9" t="n">
-        <v>4.002050086609488e-05</v>
+        <v>4.002050086609694e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>7.443023906444098e-07</v>
+        <v>7.443023906439449e-07</v>
       </c>
       <c r="T9" t="n">
-        <v>3.918045997147435e-07</v>
+        <v>3.918045997145253e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1039,58 +1039,58 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.34714133445634</v>
+        <v>59.34714133445626</v>
       </c>
       <c r="D10" t="n">
-        <v>1.885953195554852</v>
+        <v>1.885953195554848</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08220471962044955</v>
+        <v>0.08220471961927467</v>
       </c>
       <c r="F10" t="n">
-        <v>9185.967607524753</v>
+        <v>9185.967607524748</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04846846906515286</v>
+        <v>0.04846846906515281</v>
       </c>
       <c r="H10" t="n">
-        <v>2.691352231513273e-06</v>
+        <v>2.691352231511606e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5553828464823836</v>
+        <v>0.5553828464835824</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001808708385834518</v>
+        <v>0.001808708385840398</v>
       </c>
       <c r="K10" t="n">
-        <v>6.994785381537018</v>
+        <v>6.994785381476416</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02003575792270993</v>
+        <v>0.02003575792269099</v>
       </c>
       <c r="M10" t="n">
-        <v>150.3831999953869</v>
+        <v>150.3831999954592</v>
       </c>
       <c r="N10" t="n">
-        <v>2.48788036993809</v>
+        <v>2.487880369938265</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0239187927412206</v>
+        <v>0.02391879274122074</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0001525201392155791</v>
+        <v>0.0001525201392155895</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.329468389713657e-08</v>
+        <v>1.329468389713749e-08</v>
       </c>
       <c r="R10" t="n">
-        <v>6.571336230533562e-05</v>
+        <v>6.571336230534085e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>1.391269923429811e-06</v>
+        <v>1.391269923428599e-06</v>
       </c>
       <c r="T10" t="n">
-        <v>7.369171933476046e-07</v>
+        <v>7.36917193347032e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1101,58 +1101,58 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>58.03199307768594</v>
+        <v>58.03199307768585</v>
       </c>
       <c r="D11" t="n">
-        <v>2.086878013884683</v>
+        <v>2.086878013884679</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08212065746077013</v>
+        <v>0.0821206574600102</v>
       </c>
       <c r="F11" t="n">
-        <v>9097.086714973419</v>
+        <v>9097.086714973411</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04799950150727013</v>
+        <v>0.0479995015072701</v>
       </c>
       <c r="H11" t="n">
-        <v>3.444777264775979e-06</v>
+        <v>3.444777264774908e-06</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6280964198319614</v>
+        <v>0.6280964198327369</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002057004770815344</v>
+        <v>0.002057004770819887</v>
       </c>
       <c r="K11" t="n">
-        <v>6.927722397310722</v>
+        <v>6.927722397460388</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02598654353814621</v>
+        <v>0.0259865435381333</v>
       </c>
       <c r="M11" t="n">
-        <v>167.3641470373014</v>
+        <v>167.3641470371625</v>
       </c>
       <c r="N11" t="n">
-        <v>3.071568602854533</v>
+        <v>3.071568602854426</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03299701765055296</v>
+        <v>0.03299701765055375</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0002364179180750328</v>
+        <v>0.0002364179180750521</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.063978180910859e-08</v>
+        <v>2.063978180911027e-08</v>
       </c>
       <c r="R11" t="n">
-        <v>0.000101682830899346</v>
+        <v>0.0001016828308993556</v>
       </c>
       <c r="S11" t="n">
-        <v>2.412988376534374e-06</v>
+        <v>2.412988376532266e-06</v>
       </c>
       <c r="T11" t="n">
-        <v>1.2852974208655e-06</v>
+        <v>1.285297420864488e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1163,58 +1163,58 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>56.74598885166038</v>
+        <v>56.74598885166029</v>
       </c>
       <c r="D12" t="n">
-        <v>2.280725396693638</v>
+        <v>2.280725396693633</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08200641111062294</v>
+        <v>0.08200641111045537</v>
       </c>
       <c r="F12" t="n">
-        <v>9009.065809457719</v>
+        <v>9009.06580945771</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04753507155089493</v>
+        <v>0.04753507155089489</v>
       </c>
       <c r="H12" t="n">
-        <v>4.278801680016381e-06</v>
+        <v>4.278801680016164e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6992763945222299</v>
+        <v>0.6992763945224015</v>
       </c>
       <c r="J12" t="n">
-        <v>0.002300093637720949</v>
+        <v>0.002300093637721843</v>
       </c>
       <c r="K12" t="n">
-        <v>6.856504279981831</v>
+        <v>6.85650428002731</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03263794081645723</v>
+        <v>0.03263794081645465</v>
       </c>
       <c r="M12" t="n">
-        <v>183.7849543863071</v>
+        <v>183.7849543862711</v>
       </c>
       <c r="N12" t="n">
-        <v>3.706188188615693</v>
+        <v>3.706188188615786</v>
       </c>
       <c r="O12" t="n">
-        <v>0.04396146098591131</v>
+        <v>0.043961460985912</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0003496543595204578</v>
+        <v>0.0003496543595205086</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.056361334662198e-08</v>
+        <v>3.056361334662646e-08</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0001501232472864229</v>
+        <v>0.000150123247286447</v>
       </c>
       <c r="S12" t="n">
-        <v>3.944580963052142e-06</v>
+        <v>3.944580963049259e-06</v>
       </c>
       <c r="T12" t="n">
-        <v>2.112112030830212e-06</v>
+        <v>2.112112030828622e-06</v>
       </c>
     </row>
     <row r="13">
@@ -1225,58 +1225,58 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>55.48848280612449</v>
+        <v>55.48848280612441</v>
       </c>
       <c r="D13" t="n">
-        <v>2.467680572297244</v>
+        <v>2.467680572297238</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08185905518090676</v>
+        <v>0.08185905518101542</v>
       </c>
       <c r="F13" t="n">
-        <v>8921.896569953245</v>
+        <v>8921.896569953236</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04707513529063235</v>
+        <v>0.04707513529063229</v>
       </c>
       <c r="H13" t="n">
-        <v>5.189202809854154e-06</v>
+        <v>5.189202809854349e-06</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7689418507630621</v>
+        <v>0.7689418507629521</v>
       </c>
       <c r="J13" t="n">
-        <v>0.002538084999836658</v>
+        <v>0.002538084999835676</v>
       </c>
       <c r="K13" t="n">
-        <v>6.790663551227436</v>
+        <v>6.790663551173318</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03996133573132238</v>
+        <v>0.03996133573132483</v>
       </c>
       <c r="M13" t="n">
-        <v>199.6502717316571</v>
+        <v>199.6502717317201</v>
       </c>
       <c r="N13" t="n">
-        <v>4.389155416855107</v>
+        <v>4.389155416855396</v>
       </c>
       <c r="O13" t="n">
-        <v>0.05693385749875356</v>
+        <v>0.05693385749875131</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0004977941673185854</v>
+        <v>0.0004977941673188573</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.355716992872725e-08</v>
+        <v>4.355716992875131e-08</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0002133542213378698</v>
+        <v>0.0002133542213379945</v>
       </c>
       <c r="S13" t="n">
-        <v>6.146355699193978e-06</v>
+        <v>6.146355699187296e-06</v>
       </c>
       <c r="T13" t="n">
-        <v>3.307313412937162e-06</v>
+        <v>3.307313412932114e-06</v>
       </c>
     </row>
     <row r="14">
@@ -1287,58 +1287,58 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>54.25884335936309</v>
+        <v>54.25884335936301</v>
       </c>
       <c r="D14" t="n">
-        <v>2.647924371228046</v>
+        <v>2.647924371228041</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08169351809822238</v>
+        <v>0.08169351809798069</v>
       </c>
       <c r="F14" t="n">
-        <v>8835.570755840472</v>
+        <v>8835.570755840463</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04661964924609555</v>
+        <v>0.0466196492460955</v>
       </c>
       <c r="H14" t="n">
-        <v>6.171913559408219e-06</v>
+        <v>6.171913559407886e-06</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8370938494447721</v>
+        <v>0.8370938494450189</v>
       </c>
       <c r="J14" t="n">
-        <v>0.002770931183180665</v>
+        <v>0.002770931183182057</v>
       </c>
       <c r="K14" t="n">
-        <v>6.726357394277168</v>
+        <v>6.726357394240667</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04792911160759473</v>
+        <v>0.04792911160759079</v>
       </c>
       <c r="M14" t="n">
-        <v>214.977775949591</v>
+        <v>214.9777759496374</v>
       </c>
       <c r="N14" t="n">
-        <v>5.117987433366</v>
+        <v>5.117987433366267</v>
       </c>
       <c r="O14" t="n">
-        <v>0.07202374734460218</v>
+        <v>0.07202374734460569</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0006866847334220529</v>
+        <v>0.0006866847334220071</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.013653281024493e-08</v>
+        <v>6.013653281024087e-08</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0002937998124478497</v>
+        <v>0.0002937998124478309</v>
       </c>
       <c r="S14" t="n">
-        <v>9.204654929262227e-06</v>
+        <v>9.204654929260586e-06</v>
       </c>
       <c r="T14" t="n">
-        <v>4.976387860619763e-06</v>
+        <v>4.976387860619582e-06</v>
       </c>
     </row>
     <row r="15">
@@ -1349,58 +1349,58 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>53.05645299012884</v>
+        <v>53.05645299012876</v>
       </c>
       <c r="D15" t="n">
-        <v>2.821633292536392</v>
+        <v>2.821633292536387</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08151841883296304</v>
+        <v>0.08151841883269811</v>
       </c>
       <c r="F15" t="n">
-        <v>8750.080206389641</v>
+        <v>8750.080206389632</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0461685703583305</v>
+        <v>0.04616857035833047</v>
       </c>
       <c r="H15" t="n">
-        <v>7.222985716746159e-06</v>
+        <v>7.22298571674581e-06</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9037400575596436</v>
+        <v>0.9037400575599142</v>
       </c>
       <c r="J15" t="n">
-        <v>0.002998637345979518</v>
+        <v>0.002998637345981116</v>
       </c>
       <c r="K15" t="n">
-        <v>6.662372919381805</v>
+        <v>6.662372919411945</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05651416132199801</v>
+        <v>0.05651416132199365</v>
       </c>
       <c r="M15" t="n">
-        <v>229.7821872344057</v>
+        <v>229.7821872343856</v>
       </c>
       <c r="N15" t="n">
-        <v>5.890275859723049</v>
+        <v>5.890275859723253</v>
       </c>
       <c r="O15" t="n">
-        <v>0.08932890710370975</v>
+        <v>0.0893289071037108</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0009224309433220209</v>
+        <v>0.0009224309433221942</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.084064217930618e-08</v>
+        <v>8.084064217932152e-08</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0003939771680883913</v>
+        <v>0.0003939771680884735</v>
       </c>
       <c r="S15" t="n">
-        <v>1.333210962149009e-05</v>
+        <v>1.333210962148552e-05</v>
       </c>
       <c r="T15" t="n">
-        <v>7.240675272227306e-06</v>
+        <v>7.240675272224087e-06</v>
       </c>
     </row>
     <row r="16">
@@ -1411,58 +1411,58 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>51.88070792589548</v>
+        <v>51.8807079258954</v>
       </c>
       <c r="D16" t="n">
-        <v>2.988979603134206</v>
+        <v>2.9889796031342</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08133557322329391</v>
+        <v>0.08133557322308657</v>
       </c>
       <c r="F16" t="n">
-        <v>8665.416839991061</v>
+        <v>8665.416839991052</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04572185598587482</v>
+        <v>0.04572185598587478</v>
       </c>
       <c r="H16" t="n">
-        <v>8.338586201830606e-06</v>
+        <v>8.338586201830347e-06</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9688952353570074</v>
+        <v>0.9688952353572189</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00322125031868062</v>
+        <v>0.00322125031868186</v>
       </c>
       <c r="K16" t="n">
-        <v>6.596924613325617</v>
+        <v>6.596924613361743</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0656898845496124</v>
+        <v>0.06568988454960907</v>
       </c>
       <c r="M16" t="n">
-        <v>244.0784965741192</v>
+        <v>244.0784965740932</v>
       </c>
       <c r="N16" t="n">
-        <v>6.703689619694832</v>
+        <v>6.703689619695063</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1089359475584906</v>
+        <v>0.1089359475584913</v>
       </c>
       <c r="P16" t="n">
-        <v>0.001211357149578524</v>
+        <v>0.001211357149578774</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.062279305017879e-07</v>
+        <v>1.0622793050181e-07</v>
       </c>
       <c r="R16" t="n">
-        <v>0.000516479344220065</v>
+        <v>0.0005164793442201839</v>
       </c>
       <c r="S16" t="n">
-        <v>1.876808014473889e-05</v>
+        <v>1.876808014473575e-05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.02378755908809e-05</v>
+        <v>1.023787559087773e-05</v>
       </c>
     </row>
     <row r="17">
@@ -1473,58 +1473,58 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>50.73101770553206</v>
+        <v>50.73101770553198</v>
       </c>
       <c r="D17" t="n">
-        <v>3.150131477114267</v>
+        <v>3.150131477114261</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08113867946340048</v>
+        <v>0.08113867946332821</v>
       </c>
       <c r="F17" t="n">
-        <v>8581.572653063844</v>
+        <v>8581.572653063833</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04527946389894741</v>
+        <v>0.04527946389894737</v>
       </c>
       <c r="H17" t="n">
-        <v>9.514990898243457e-06</v>
+        <v>9.514990898243384e-06</v>
       </c>
       <c r="I17" t="n">
-        <v>1.032582554190324</v>
+        <v>1.032582554190398</v>
       </c>
       <c r="J17" t="n">
-        <v>0.003438874404092952</v>
+        <v>0.003438874404093331</v>
       </c>
       <c r="K17" t="n">
-        <v>6.532353680666408</v>
+        <v>6.532353680684082</v>
       </c>
       <c r="L17" t="n">
-        <v>0.07543014525103499</v>
+        <v>0.07543014525103403</v>
       </c>
       <c r="M17" t="n">
-        <v>257.8772772744645</v>
+        <v>257.8772772744567</v>
       </c>
       <c r="N17" t="n">
-        <v>7.555964763954898</v>
+        <v>7.555964763955185</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1309211562315444</v>
+        <v>0.1309211562315476</v>
       </c>
       <c r="P17" t="n">
-        <v>0.001559955458164777</v>
+        <v>0.001559955458164932</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.368717438271337e-07</v>
+        <v>1.368717438271473e-07</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0006639520832081983</v>
+        <v>0.0006639520832082761</v>
       </c>
       <c r="S17" t="n">
-        <v>2.577901038633595e-05</v>
+        <v>2.57790103863366e-05</v>
       </c>
       <c r="T17" t="n">
-        <v>1.412262947848855e-05</v>
+        <v>1.412262947848793e-05</v>
       </c>
     </row>
     <row r="18">
@@ -1535,58 +1535,58 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>49.60680493518031</v>
+        <v>49.60680493518022</v>
       </c>
       <c r="D18" t="n">
-        <v>3.305253073438458</v>
+        <v>3.305253073438455</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08092693682238693</v>
+        <v>0.08092693682254046</v>
       </c>
       <c r="F18" t="n">
-        <v>8498.539719424463</v>
+        <v>8498.539719424452</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04484135227615459</v>
+        <v>0.04484135227615455</v>
       </c>
       <c r="H18" t="n">
-        <v>1.074860176896215e-05</v>
+        <v>1.074860176896232e-05</v>
       </c>
       <c r="I18" t="n">
-        <v>1.094819699354168</v>
+        <v>1.094819699354011</v>
       </c>
       <c r="J18" t="n">
-        <v>0.003651568886258277</v>
+        <v>0.003651568886257287</v>
       </c>
       <c r="K18" t="n">
-        <v>6.46917643956644</v>
+        <v>6.469176439522053</v>
       </c>
       <c r="L18" t="n">
-        <v>0.08570952014818167</v>
+        <v>0.08570952014818438</v>
       </c>
       <c r="M18" t="n">
-        <v>271.1906272034806</v>
+        <v>271.1906272035345</v>
       </c>
       <c r="N18" t="n">
-        <v>8.444912260077329</v>
+        <v>8.444912260077688</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1553509273552371</v>
+        <v>0.1553509273552568</v>
       </c>
       <c r="P18" t="n">
-        <v>0.001974859997422115</v>
+        <v>0.001974859997421356</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.73358063503884e-07</v>
+        <v>1.733580635038169e-07</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0008390825284125042</v>
+        <v>0.0008390825284121818</v>
       </c>
       <c r="S18" t="n">
-        <v>3.465814068460342e-05</v>
+        <v>3.46581406845997e-05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.906660031547525e-05</v>
+        <v>1.906660031548016e-05</v>
       </c>
     </row>
     <row r="19">
@@ -1597,58 +1597,58 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>48.50750507539848</v>
+        <v>48.50750507539841</v>
       </c>
       <c r="D19" t="n">
-        <v>3.45450460366829</v>
+        <v>3.454504603668282</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08070155104578765</v>
+        <v>0.08070155104581848</v>
       </c>
       <c r="F19" t="n">
-        <v>8416.31018973412</v>
+        <v>8416.310189734109</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04440747970156163</v>
+        <v>0.04440747970156158</v>
       </c>
       <c r="H19" t="n">
-        <v>1.203593973545701e-05</v>
+        <v>1.203593973545709e-05</v>
       </c>
       <c r="I19" t="n">
-        <v>1.155622422746456</v>
+        <v>1.155622422746424</v>
       </c>
       <c r="J19" t="n">
-        <v>0.003859382148837789</v>
+        <v>0.003859382148837617</v>
       </c>
       <c r="K19" t="n">
-        <v>6.406983280584528</v>
+        <v>6.406983280583927</v>
       </c>
       <c r="L19" t="n">
-        <v>0.09650321901503026</v>
+        <v>0.09650321901503105</v>
       </c>
       <c r="M19" t="n">
-        <v>284.0312767978018</v>
+        <v>284.0312767978116</v>
       </c>
       <c r="N19" t="n">
-        <v>9.368415165370743</v>
+        <v>9.368415165371125</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1822821467613357</v>
+        <v>0.1822821467613385</v>
       </c>
       <c r="P19" t="n">
-        <v>0.002462824689508731</v>
+        <v>0.002462824689509049</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.162835378973072e-07</v>
+        <v>2.162835378973354e-07</v>
       </c>
       <c r="R19" t="n">
-        <v>0.001044589489189859</v>
+        <v>0.001044589489190013</v>
       </c>
       <c r="S19" t="n">
-        <v>4.572524157151666e-05</v>
+        <v>4.572524157152177e-05</v>
       </c>
       <c r="T19" t="n">
-        <v>2.52585330375298e-05</v>
+        <v>2.525853303753007e-05</v>
       </c>
     </row>
     <row r="20">
@@ -1659,58 +1659,58 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>48.50750507539848</v>
+        <v>48.50750507539841</v>
       </c>
       <c r="D20" t="n">
-        <v>3.45450460366829</v>
+        <v>3.454504603668282</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08070155104578765</v>
+        <v>0.08070155104581848</v>
       </c>
       <c r="F20" t="n">
-        <v>8416.31018973412</v>
+        <v>8416.310189734109</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04440747970156163</v>
+        <v>0.04440747970156158</v>
       </c>
       <c r="H20" t="n">
-        <v>1.203593973545701e-05</v>
+        <v>1.203593973545709e-05</v>
       </c>
       <c r="I20" t="n">
-        <v>1.155622422746456</v>
+        <v>1.155622422746424</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003859382148837789</v>
+        <v>0.003859382148837617</v>
       </c>
       <c r="K20" t="n">
-        <v>6.406983280584528</v>
+        <v>6.406983280583927</v>
       </c>
       <c r="L20" t="n">
-        <v>0.09650321901503026</v>
+        <v>0.09650321901503105</v>
       </c>
       <c r="M20" t="n">
-        <v>284.0312767978018</v>
+        <v>284.0312767978116</v>
       </c>
       <c r="N20" t="n">
-        <v>9.368415165370743</v>
+        <v>9.368415165371125</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1822821467613357</v>
+        <v>0.1822821467613385</v>
       </c>
       <c r="P20" t="n">
-        <v>0.002462824689508731</v>
+        <v>0.002462824689509049</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.162835378973072e-07</v>
+        <v>2.162835378973354e-07</v>
       </c>
       <c r="R20" t="n">
-        <v>0.001044589489189859</v>
+        <v>0.001044589489190013</v>
       </c>
       <c r="S20" t="n">
-        <v>4.572524157151666e-05</v>
+        <v>4.572524157152177e-05</v>
       </c>
       <c r="T20" t="n">
-        <v>2.52585330375298e-05</v>
+        <v>2.525853303753007e-05</v>
       </c>
     </row>
     <row r="21">
@@ -1721,58 +1721,58 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>48.50750507528983</v>
+        <v>48.50750507528977</v>
       </c>
       <c r="D21" t="n">
-        <v>3.45450460368442</v>
+        <v>3.454504603684413</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02890100833526588</v>
+        <v>0.02890100833529167</v>
       </c>
       <c r="F21" t="n">
-        <v>8416.310189725902</v>
+        <v>8416.310189725893</v>
       </c>
       <c r="G21" t="n">
-        <v>4.440847065270114e-12</v>
+        <v>4.440847065270109e-12</v>
       </c>
       <c r="H21" t="n">
-        <v>1.203593824271517e-05</v>
+        <v>1.203593824271526e-05</v>
       </c>
       <c r="I21" t="n">
-        <v>1.207422843745728</v>
+        <v>1.2074228437457</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001460651493076046</v>
+        <v>0.0001460651493358781</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3403730048247319</v>
+        <v>0.3403730048624509</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1002165143848198</v>
+        <v>0.100216514384792</v>
       </c>
       <c r="M21" t="n">
-        <v>290.1422744759215</v>
+        <v>290.1422744758935</v>
       </c>
       <c r="N21" t="n">
-        <v>9.368415165462752</v>
+        <v>9.368415165463137</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1820402346982393</v>
+        <v>0.1820402346982422</v>
       </c>
       <c r="P21" t="n">
-        <v>0.002462824689561373</v>
+        <v>0.002462824689561692</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.177569037877299e-17</v>
+        <v>2.177569051036272e-17</v>
       </c>
       <c r="R21" t="n">
-        <v>0.001286450402454375</v>
+        <v>0.001286450402454531</v>
       </c>
       <c r="S21" t="n">
-        <v>4.572524157290109e-05</v>
+        <v>4.57252415729062e-05</v>
       </c>
       <c r="T21" t="n">
-        <v>2.547481657609816e-05</v>
+        <v>2.547481657609845e-05</v>
       </c>
     </row>
     <row r="22">
@@ -1783,58 +1783,58 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>48.50750507518115</v>
+        <v>48.50750507518108</v>
       </c>
       <c r="D22" t="n">
-        <v>3.45450460370055</v>
+        <v>3.454504603700544</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01035052835173443</v>
+        <v>0.01035052834929204</v>
       </c>
       <c r="F22" t="n">
-        <v>8416.310189717718</v>
+        <v>8416.310189717709</v>
       </c>
       <c r="G22" t="n">
-        <v>4.440847065266077e-12</v>
+        <v>4.44084706526607e-12</v>
       </c>
       <c r="H22" t="n">
-        <v>1.203593674997808e-05</v>
+        <v>1.203593674997817e-05</v>
       </c>
       <c r="I22" t="n">
-        <v>1.225973280146542</v>
+        <v>1.225973280148983</v>
       </c>
       <c r="J22" t="n">
-        <v>5.536700992322569e-06</v>
+        <v>5.536700760771499e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01798010132004666</v>
+        <v>0.01798010086902871</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1003570420157239</v>
+        <v>0.100357042015956</v>
       </c>
       <c r="M22" t="n">
-        <v>290.4646663346842</v>
+        <v>290.4646663351449</v>
       </c>
       <c r="N22" t="n">
-        <v>9.36841516555385</v>
+        <v>9.368415165554234</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1817986436838471</v>
+        <v>0.1817986436838499</v>
       </c>
       <c r="P22" t="n">
-        <v>0.002462824689613939</v>
+        <v>0.002462824689614258</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.177548302073726e-17</v>
+        <v>2.177548302046382e-17</v>
       </c>
       <c r="R22" t="n">
-        <v>0.001527979664334408</v>
+        <v>0.001527979664334568</v>
       </c>
       <c r="S22" t="n">
-        <v>4.572524157459928e-05</v>
+        <v>4.572524157460438e-05</v>
       </c>
       <c r="T22" t="n">
-        <v>2.547481657679097e-05</v>
+        <v>2.547481657679127e-05</v>
       </c>
     </row>
     <row r="23">
@@ -1845,58 +1845,58 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>48.50750507507246</v>
+        <v>48.50750507507239</v>
       </c>
       <c r="D23" t="n">
-        <v>3.45450460371668</v>
+        <v>3.454504603716673</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003706675729753524</v>
+        <v>0.003706675728868235</v>
       </c>
       <c r="F23" t="n">
-        <v>8416.310189709538</v>
+        <v>8416.310189709528</v>
       </c>
       <c r="G23" t="n">
-        <v>4.440847065261758e-12</v>
+        <v>4.440847065261755e-12</v>
       </c>
       <c r="H23" t="n">
-        <v>1.20359352572428e-05</v>
+        <v>1.203593525724289e-05</v>
       </c>
       <c r="I23" t="n">
-        <v>1.232617117163118</v>
+        <v>1.232617117164001</v>
       </c>
       <c r="J23" t="n">
-        <v>2.077111669301125e-07</v>
+        <v>2.077111590024754e-07</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0009438649800532377</v>
+        <v>0.0009438649574988698</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1003623709757182</v>
+        <v>0.1003623709757267</v>
       </c>
       <c r="M23" t="n">
-        <v>290.4817025170026</v>
+        <v>290.4817025170349</v>
       </c>
       <c r="N23" t="n">
-        <v>9.368415165644901</v>
+        <v>9.368415165645285</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1815573732920861</v>
+        <v>0.1815573732920889</v>
       </c>
       <c r="P23" t="n">
-        <v>0.002462824689666431</v>
+        <v>0.002462824689666751</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.177520953725246e-17</v>
+        <v>2.177520953719807e-17</v>
       </c>
       <c r="R23" t="n">
-        <v>0.001769177715441996</v>
+        <v>0.00176917771544216</v>
       </c>
       <c r="S23" t="n">
-        <v>4.572524157661077e-05</v>
+        <v>4.572524157661587e-05</v>
       </c>
       <c r="T23" t="n">
-        <v>2.54748165774838e-05</v>
+        <v>2.547481657748409e-05</v>
       </c>
     </row>
     <row r="24">
@@ -1907,58 +1907,58 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>48.50750507496375</v>
+        <v>48.50750507496367</v>
       </c>
       <c r="D24" t="n">
-        <v>3.45450460373281</v>
+        <v>3.454504603732803</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001327444248693115</v>
+        <v>0.001327444248405413</v>
       </c>
       <c r="F24" t="n">
-        <v>8416.310189701358</v>
+        <v>8416.310189701348</v>
       </c>
       <c r="G24" t="n">
-        <v>4.440847065257444e-12</v>
+        <v>4.440847065257438e-12</v>
       </c>
       <c r="H24" t="n">
-        <v>1.20359337645083e-05</v>
+        <v>1.203593376450839e-05</v>
       </c>
       <c r="I24" t="n">
-        <v>1.234996343059463</v>
+        <v>1.234996343059749</v>
       </c>
       <c r="J24" t="n">
-        <v>7.916129022872473e-09</v>
+        <v>7.916128701144604e-09</v>
       </c>
       <c r="K24" t="n">
-        <v>4.99592446833159e-05</v>
+        <v>4.995924355552673e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1003625707708084</v>
+        <v>0.1003625707708093</v>
       </c>
       <c r="M24" t="n">
-        <v>290.4825964210897</v>
+        <v>290.4825964211005</v>
       </c>
       <c r="N24" t="n">
-        <v>9.368415165735954</v>
+        <v>9.368415165736335</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1813164230974484</v>
+        <v>0.1813164230974512</v>
       </c>
       <c r="P24" t="n">
-        <v>0.002462824689718851</v>
+        <v>0.00246282468971917</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.177521704735462e-17</v>
+        <v>2.177521704739866e-17</v>
       </c>
       <c r="R24" t="n">
-        <v>0.002010044995804859</v>
+        <v>0.002010044995805027</v>
       </c>
       <c r="S24" t="n">
-        <v>4.572524157893513e-05</v>
+        <v>4.572524157894023e-05</v>
       </c>
       <c r="T24" t="n">
-        <v>2.547481657817662e-05</v>
+        <v>2.54748165781769e-05</v>
       </c>
     </row>
     <row r="25">
@@ -1969,58 +1969,58 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>48.50750507485504</v>
+        <v>48.50750507485497</v>
       </c>
       <c r="D25" t="n">
-        <v>3.45450460374894</v>
+        <v>3.454504603748933</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0004753828751932919</v>
+        <v>0.0004753828750647927</v>
       </c>
       <c r="F25" t="n">
-        <v>8416.310189693175</v>
+        <v>8416.310189693164</v>
       </c>
       <c r="G25" t="n">
-        <v>4.440847065253126e-12</v>
+        <v>4.440847065253119e-12</v>
       </c>
       <c r="H25" t="n">
-        <v>1.203593227177419e-05</v>
+        <v>1.203593227177428e-05</v>
       </c>
       <c r="I25" t="n">
-        <v>1.235848402436679</v>
+        <v>1.235848402436806</v>
       </c>
       <c r="J25" t="n">
-        <v>2.991245389345027e-10</v>
+        <v>2.991245244066957e-10</v>
       </c>
       <c r="K25" t="n">
-        <v>2.631897703750765e-06</v>
+        <v>2.631897623030357e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1003625783889864</v>
+        <v>0.1003625783889869</v>
       </c>
       <c r="M25" t="n">
-        <v>290.4826437495352</v>
+        <v>290.4826437495449</v>
       </c>
       <c r="N25" t="n">
-        <v>9.368415165827004</v>
+        <v>9.368415165827386</v>
       </c>
       <c r="O25" t="n">
-        <v>0.181075792674991</v>
+        <v>0.1810757926749939</v>
       </c>
       <c r="P25" t="n">
-        <v>0.002462824689771197</v>
+        <v>0.002462824689771517</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.177521477190978e-17</v>
+        <v>2.177521477190616e-17</v>
       </c>
       <c r="R25" t="n">
-        <v>0.002250581944866752</v>
+        <v>0.002250581944866924</v>
       </c>
       <c r="S25" t="n">
-        <v>4.572524158157195e-05</v>
+        <v>4.572524158157705e-05</v>
       </c>
       <c r="T25" t="n">
-        <v>2.547481657886942e-05</v>
+        <v>2.547481657886971e-05</v>
       </c>
     </row>
     <row r="26">
@@ -2031,58 +2031,58 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>48.50750507485504</v>
+        <v>48.50750507485497</v>
       </c>
       <c r="D26" t="n">
-        <v>3.45450460374894</v>
+        <v>3.454504603748933</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0004753828751932919</v>
+        <v>0.0004753828750647927</v>
       </c>
       <c r="F26" t="n">
-        <v>8416.310189693175</v>
+        <v>8416.310189693164</v>
       </c>
       <c r="G26" t="n">
-        <v>4.440847065253126e-12</v>
+        <v>4.440847065253119e-12</v>
       </c>
       <c r="H26" t="n">
-        <v>1.203593227177419e-05</v>
+        <v>1.203593227177428e-05</v>
       </c>
       <c r="I26" t="n">
-        <v>1.235848402436679</v>
+        <v>1.235848402436806</v>
       </c>
       <c r="J26" t="n">
-        <v>2.991245389345027e-10</v>
+        <v>2.991245244066957e-10</v>
       </c>
       <c r="K26" t="n">
-        <v>2.631897703750765e-06</v>
+        <v>2.631897623030357e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1003625783889864</v>
+        <v>0.1003625783889869</v>
       </c>
       <c r="M26" t="n">
-        <v>290.4826437495352</v>
+        <v>290.4826437495449</v>
       </c>
       <c r="N26" t="n">
-        <v>9.368415165827004</v>
+        <v>9.368415165827386</v>
       </c>
       <c r="O26" t="n">
-        <v>0.181075792674991</v>
+        <v>0.1810757926749939</v>
       </c>
       <c r="P26" t="n">
-        <v>0.002462824689771197</v>
+        <v>0.002462824689771517</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.177521477190978e-17</v>
+        <v>2.177521477190616e-17</v>
       </c>
       <c r="R26" t="n">
-        <v>0.002250581944866752</v>
+        <v>0.002250581944866924</v>
       </c>
       <c r="S26" t="n">
-        <v>4.572524158157195e-05</v>
+        <v>4.572524158157705e-05</v>
       </c>
       <c r="T26" t="n">
-        <v>2.547481657886942e-05</v>
+        <v>2.547481657886971e-05</v>
       </c>
     </row>
     <row r="27">
@@ -2093,58 +2093,58 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>47.43256600903882</v>
+        <v>47.43256600903876</v>
       </c>
       <c r="D27" t="n">
-        <v>3.598042469403781</v>
+        <v>3.598042469403775</v>
       </c>
       <c r="E27" t="n">
-        <v>0.05173052712555364</v>
+        <v>0.05173052712570912</v>
       </c>
       <c r="F27" t="n">
-        <v>8334.876290346205</v>
+        <v>8334.876290346188</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04397780514130612</v>
+        <v>0.04397780514130605</v>
       </c>
       <c r="H27" t="n">
-        <v>1.344236200107379e-05</v>
+        <v>1.344236200107429e-05</v>
       </c>
       <c r="I27" t="n">
-        <v>1.242762439569967</v>
+        <v>1.242762439569804</v>
       </c>
       <c r="J27" t="n">
-        <v>0.004040638769505164</v>
+        <v>0.00404063876968685</v>
       </c>
       <c r="K27" t="n">
-        <v>6.005497288288283</v>
+        <v>6.005497288523817</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1083676045297066</v>
+        <v>0.1083676045295292</v>
       </c>
       <c r="M27" t="n">
-        <v>296.7432194179129</v>
+        <v>296.7432194176861</v>
       </c>
       <c r="N27" t="n">
-        <v>10.31499864220177</v>
+        <v>10.31499864220181</v>
       </c>
       <c r="O27" t="n">
-        <v>0.2105662806267765</v>
+        <v>0.2105662806267812</v>
       </c>
       <c r="P27" t="n">
-        <v>0.003027054000668547</v>
+        <v>0.003027054000668873</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.659363114347656e-07</v>
+        <v>2.659363114363797e-07</v>
       </c>
       <c r="R27" t="n">
-        <v>0.002464218258244717</v>
+        <v>0.00246421825824489</v>
       </c>
       <c r="S27" t="n">
-        <v>7.460172230849282e-05</v>
+        <v>7.460172230849985e-05</v>
       </c>
       <c r="T27" t="n">
-        <v>3.292063789265226e-05</v>
+        <v>3.292063789264278e-05</v>
       </c>
     </row>
     <row r="28">
@@ -2155,58 +2155,58 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>46.38144783257521</v>
+        <v>46.3814478325751</v>
       </c>
       <c r="D28" t="n">
-        <v>3.736019327049506</v>
+        <v>3.736019327049515</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06991774556322741</v>
+        <v>0.06991774556454469</v>
       </c>
       <c r="F28" t="n">
-        <v>8254.230322268741</v>
+        <v>8254.230322268728</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04355228802468088</v>
+        <v>0.04355228802468083</v>
       </c>
       <c r="H28" t="n">
-        <v>1.484865619850226e-05</v>
+        <v>1.484865619850409e-05</v>
       </c>
       <c r="I28" t="n">
-        <v>1.281976892365126</v>
+        <v>1.281976892363781</v>
       </c>
       <c r="J28" t="n">
-        <v>0.004300358888414351</v>
+        <v>0.004300358888454241</v>
       </c>
       <c r="K28" t="n">
-        <v>6.26425650878086</v>
+        <v>6.264256508869154</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1202329793502337</v>
+        <v>0.1202329793502083</v>
       </c>
       <c r="M28" t="n">
-        <v>308.3550472742482</v>
+        <v>308.3550472741699</v>
       </c>
       <c r="N28" t="n">
-        <v>11.30112326756092</v>
+        <v>11.30112326756103</v>
       </c>
       <c r="O28" t="n">
-        <v>0.2426354944562086</v>
+        <v>0.2426354944562172</v>
       </c>
       <c r="P28" t="n">
-        <v>0.003678107786377069</v>
+        <v>0.003678107786378119</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.232438012481427e-07</v>
+        <v>3.232438012482342e-07</v>
       </c>
       <c r="R28" t="n">
-        <v>0.00271418610956016</v>
+        <v>0.002714186109560615</v>
       </c>
       <c r="S28" t="n">
-        <v>0.0001056431440306058</v>
+        <v>0.0001056431440306592</v>
       </c>
       <c r="T28" t="n">
-        <v>4.228990778087072e-05</v>
+        <v>4.228990778088912e-05</v>
       </c>
     </row>
     <row r="29">
@@ -2217,58 +2217,58 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>45.35361155365216</v>
+        <v>45.35361155365245</v>
       </c>
       <c r="D29" t="n">
-        <v>3.868587279023759</v>
+        <v>3.868587279023652</v>
       </c>
       <c r="E29" t="n">
-        <v>0.07636953516101003</v>
+        <v>0.07636953515728565</v>
       </c>
       <c r="F29" t="n">
-        <v>8174.364498270525</v>
+        <v>8174.364498270515</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04313088721146336</v>
+        <v>0.04313088721146333</v>
       </c>
       <c r="H29" t="n">
-        <v>1.628218910070014e-05</v>
+        <v>1.628218910069715e-05</v>
       </c>
       <c r="I29" t="n">
-        <v>1.33175937035363</v>
+        <v>1.331759370357412</v>
       </c>
       <c r="J29" t="n">
-        <v>0.004467183834001676</v>
+        <v>0.004467183833985535</v>
       </c>
       <c r="K29" t="n">
-        <v>6.2227202825762</v>
+        <v>6.222720282501377</v>
       </c>
       <c r="L29" t="n">
-        <v>0.132497943140646</v>
+        <v>0.1324979431406375</v>
       </c>
       <c r="M29" t="n">
-        <v>319.8313768994493</v>
+        <v>319.8313768995253</v>
       </c>
       <c r="N29" t="n">
-        <v>12.31628104350775</v>
+        <v>12.31628104350961</v>
       </c>
       <c r="O29" t="n">
-        <v>0.277325984457817</v>
+        <v>0.2773259844578085</v>
       </c>
       <c r="P29" t="n">
-        <v>0.004423050038926736</v>
+        <v>0.004423050038922256</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.888260146677004e-07</v>
+        <v>3.888260146673056e-07</v>
       </c>
       <c r="R29" t="n">
-        <v>0.003003261937734181</v>
+        <v>0.003003261937732479</v>
       </c>
       <c r="S29" t="n">
-        <v>0.0001392818889174805</v>
+        <v>0.0001392818889171761</v>
       </c>
       <c r="T29" t="n">
-        <v>5.360938070931448e-05</v>
+        <v>5.360938070912804e-05</v>
       </c>
     </row>
     <row r="30">
@@ -2279,58 +2279,58 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>44.34855324676845</v>
+        <v>44.3485532467687</v>
       </c>
       <c r="D30" t="n">
-        <v>3.995888251389895</v>
+        <v>3.9958882513898</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07836012957947573</v>
+        <v>0.07836012957774467</v>
       </c>
       <c r="F30" t="n">
-        <v>8095.271441825409</v>
+        <v>8095.271441825398</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04271356379782595</v>
+        <v>0.04271356379782589</v>
       </c>
       <c r="H30" t="n">
-        <v>1.775041636133575e-05</v>
+        <v>1.775041636133535e-05</v>
       </c>
       <c r="I30" t="n">
-        <v>1.38471018474338</v>
+        <v>1.384710184745131</v>
       </c>
       <c r="J30" t="n">
-        <v>0.004643878119182417</v>
+        <v>0.004643878119179535</v>
       </c>
       <c r="K30" t="n">
-        <v>6.160853534420776</v>
+        <v>6.160853534392761</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1451200570176082</v>
+        <v>0.1451200570176071</v>
       </c>
       <c r="M30" t="n">
-        <v>330.902800619812</v>
+        <v>330.9028006198416</v>
       </c>
       <c r="N30" t="n">
-        <v>13.35822614778388</v>
+        <v>13.35822614778554</v>
       </c>
       <c r="O30" t="n">
-        <v>0.3146615226423238</v>
+        <v>0.314661522642323</v>
       </c>
       <c r="P30" t="n">
-        <v>0.005268655980263898</v>
+        <v>0.005268655980259902</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.632869116944074e-07</v>
+        <v>4.632869116940541e-07</v>
       </c>
       <c r="R30" t="n">
-        <v>0.003334089435001332</v>
+        <v>0.003334089434999831</v>
       </c>
       <c r="S30" t="n">
-        <v>0.0001759548537598732</v>
+        <v>0.0001759548537595853</v>
       </c>
       <c r="T30" t="n">
-        <v>6.712863228525653e-05</v>
+        <v>6.712863228507681e-05</v>
       </c>
     </row>
     <row r="31">
@@ -2341,58 +2341,58 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>43.36577671180289</v>
+        <v>43.3657767118033</v>
       </c>
       <c r="D31" t="n">
-        <v>4.118061750260017</v>
+        <v>4.118061750259879</v>
       </c>
       <c r="E31" t="n">
-        <v>0.07887533046762349</v>
+        <v>0.07887533047480728</v>
       </c>
       <c r="F31" t="n">
-        <v>8016.943805905616</v>
+        <v>8016.943805905608</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0423002790181811</v>
+        <v>0.04230027901818104</v>
       </c>
       <c r="H31" t="n">
-        <v>1.925471910106535e-05</v>
+        <v>1.925471910107847e-05</v>
       </c>
       <c r="I31" t="n">
-        <v>1.437802131241249</v>
+        <v>1.437802131233902</v>
       </c>
       <c r="J31" t="n">
-        <v>0.004824821827273126</v>
+        <v>0.004824821827278968</v>
       </c>
       <c r="K31" t="n">
-        <v>6.102557249206322</v>
+        <v>6.102557249311475</v>
       </c>
       <c r="L31" t="n">
-        <v>0.158117024210804</v>
+        <v>0.158117024210901</v>
       </c>
       <c r="M31" t="n">
-        <v>341.5561530914817</v>
+        <v>341.5561530913746</v>
       </c>
       <c r="N31" t="n">
-        <v>14.42515716216118</v>
+        <v>14.4251571621631</v>
       </c>
       <c r="O31" t="n">
-        <v>0.3546592544034584</v>
+        <v>0.354659254403485</v>
       </c>
       <c r="P31" t="n">
-        <v>0.006221720444363315</v>
+        <v>0.006221720444356633</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.472267423007833e-07</v>
+        <v>5.472267423001923e-07</v>
       </c>
       <c r="R31" t="n">
-        <v>0.003709302156347735</v>
+        <v>0.003709302156345294</v>
       </c>
       <c r="S31" t="n">
-        <v>0.0002161206057020016</v>
+        <v>0.000216120605701418</v>
       </c>
       <c r="T31" t="n">
-        <v>8.311313023049901e-05</v>
+        <v>8.311313023012845e-05</v>
       </c>
     </row>
     <row r="32">
@@ -2403,58 +2403,58 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>42.40477194721175</v>
+        <v>42.40477194721075</v>
       </c>
       <c r="D32" t="n">
-        <v>4.235250877526368</v>
+        <v>4.235250877526623</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07893735190415202</v>
+        <v>0.07893735190630635</v>
       </c>
       <c r="F32" t="n">
-        <v>7939.373941645322</v>
+        <v>7939.373941645293</v>
       </c>
       <c r="G32" t="n">
-        <v>0.04189099251436453</v>
+        <v>0.04189099251436438</v>
       </c>
       <c r="H32" t="n">
-        <v>2.079361712143447e-05</v>
+        <v>2.079361712143241e-05</v>
       </c>
       <c r="I32" t="n">
-        <v>1.49001093572176</v>
+        <v>1.490010935719593</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005003088230283962</v>
+        <v>0.005003088230277694</v>
       </c>
       <c r="K32" t="n">
-        <v>6.044264809743149</v>
+        <v>6.044264809755393</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1714851889611424</v>
+        <v>0.1714851889611342</v>
       </c>
       <c r="M32" t="n">
-        <v>351.8060620101501</v>
+        <v>351.806062010166</v>
       </c>
       <c r="N32" t="n">
-        <v>15.51528720977839</v>
+        <v>15.51528720977565</v>
       </c>
       <c r="O32" t="n">
-        <v>0.3973301780299441</v>
+        <v>0.3973301780299738</v>
       </c>
       <c r="P32" t="n">
-        <v>0.00728935238496861</v>
+        <v>0.007289352384982059</v>
       </c>
       <c r="Q32" t="n">
-        <v>6.41273971211592e-07</v>
+        <v>6.41273971212781e-07</v>
       </c>
       <c r="R32" t="n">
-        <v>0.00413163389678773</v>
+        <v>0.004131633896792938</v>
       </c>
       <c r="S32" t="n">
-        <v>0.0002602833612984519</v>
+        <v>0.0002602833612994015</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0001018589429417666</v>
+        <v>0.0001018589429423136</v>
       </c>
     </row>
     <row r="33">
@@ -2465,58 +2465,58 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>41.46498052119933</v>
+        <v>41.46498052119109</v>
       </c>
       <c r="D33" t="n">
-        <v>4.347611922862417</v>
+        <v>4.347611922864693</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07880768634060047</v>
+        <v>0.07880768634276807</v>
       </c>
       <c r="F33" t="n">
-        <v>7862.553336106109</v>
+        <v>7862.553336105971</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04148565936905043</v>
+        <v>0.04148565936904969</v>
       </c>
       <c r="H33" t="n">
-        <v>2.236430982449001e-05</v>
+        <v>2.23643098244474e-05</v>
       </c>
       <c r="I33" t="n">
-        <v>1.541090246815273</v>
+        <v>1.541090246813361</v>
       </c>
       <c r="J33" t="n">
-        <v>0.005177422477004254</v>
+        <v>0.00517742247699657</v>
       </c>
       <c r="K33" t="n">
-        <v>5.985609932445639</v>
+        <v>5.985609932452113</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1852046687902437</v>
+        <v>0.1852046687899262</v>
       </c>
       <c r="M33" t="n">
-        <v>361.6649824749403</v>
+        <v>361.6649824751183</v>
       </c>
       <c r="N33" t="n">
-        <v>16.62668349195977</v>
+        <v>16.62668349193234</v>
       </c>
       <c r="O33" t="n">
-        <v>0.4426774065598953</v>
+        <v>0.442677406559865</v>
       </c>
       <c r="P33" t="n">
-        <v>0.008479477121444996</v>
+        <v>0.008479477121562558</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.461292195226263e-07</v>
+        <v>7.461292195330201e-07</v>
       </c>
       <c r="R33" t="n">
-        <v>0.004604100439057989</v>
+        <v>0.00460410043910243</v>
       </c>
       <c r="S33" t="n">
-        <v>0.0003090410715601201</v>
+        <v>0.0003090410715693506</v>
       </c>
       <c r="T33" t="n">
-        <v>0.0001237233729417633</v>
+        <v>0.0001237233729473308</v>
       </c>
     </row>
     <row r="34">
@@ -2527,58 +2527,58 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>40.54599397626843</v>
+        <v>40.54599397627882</v>
       </c>
       <c r="D34" t="n">
-        <v>4.455258985633878</v>
+        <v>4.455258985630955</v>
       </c>
       <c r="E34" t="n">
-        <v>0.07855497496274365</v>
+        <v>0.0785549749605615</v>
       </c>
       <c r="F34" t="n">
-        <v>7786.475688187774</v>
+        <v>7786.475688187921</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04108424633536768</v>
+        <v>0.04108424633536847</v>
       </c>
       <c r="H34" t="n">
-        <v>2.396460015814754e-05</v>
+        <v>2.396460015820272e-05</v>
       </c>
       <c r="I34" t="n">
-        <v>1.590985222634522</v>
+        <v>1.590985222636348</v>
       </c>
       <c r="J34" t="n">
-        <v>0.005347929427458529</v>
+        <v>0.005347929427462938</v>
       </c>
       <c r="K34" t="n">
-        <v>5.927491747942025</v>
+        <v>5.92749174792685</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1992585754313639</v>
+        <v>0.1992585754317845</v>
       </c>
       <c r="M34" t="n">
-        <v>371.1408462954033</v>
+        <v>371.1408462952003</v>
       </c>
       <c r="N34" t="n">
-        <v>17.75794622301171</v>
+        <v>17.75794622304775</v>
       </c>
       <c r="O34" t="n">
-        <v>0.4906985214691801</v>
+        <v>0.4906985214693671</v>
       </c>
       <c r="P34" t="n">
-        <v>0.009797954596670993</v>
+        <v>0.009797954596520362</v>
       </c>
       <c r="Q34" t="n">
-        <v>8.62310575989069e-07</v>
+        <v>8.623105759757505e-07</v>
       </c>
       <c r="R34" t="n">
-        <v>0.005128913878729388</v>
+        <v>0.00512891387867303</v>
       </c>
       <c r="S34" t="n">
-        <v>0.0003628555829307232</v>
+        <v>0.000362855582918334</v>
       </c>
       <c r="T34" t="n">
-        <v>0.0001489857504647013</v>
+        <v>0.0001489857504571083</v>
       </c>
     </row>
     <row r="35">
@@ -2589,58 +2589,58 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>39.64724954312223</v>
+        <v>39.64724954312602</v>
       </c>
       <c r="D35" t="n">
-        <v>4.558348887875939</v>
+        <v>4.558348887874859</v>
       </c>
       <c r="E35" t="n">
-        <v>0.07825978238683934</v>
+        <v>0.07825978238617007</v>
       </c>
       <c r="F35" t="n">
-        <v>7711.132184443811</v>
+        <v>7711.132184443862</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04068670691040262</v>
+        <v>0.04068670691040289</v>
       </c>
       <c r="H35" t="n">
-        <v>2.559148930234044e-05</v>
+        <v>2.559148930236042e-05</v>
       </c>
       <c r="I35" t="n">
-        <v>1.63963514836105</v>
+        <v>1.639635148361573</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005514297956838023</v>
+        <v>0.005514297956840488</v>
       </c>
       <c r="K35" t="n">
-        <v>5.870060047327281</v>
+        <v>5.870060047325727</v>
       </c>
       <c r="L35" t="n">
-        <v>0.2136240447123281</v>
+        <v>0.2136240447124833</v>
       </c>
       <c r="M35" t="n">
-        <v>380.2456551761026</v>
+        <v>380.2456551760284</v>
       </c>
       <c r="N35" t="n">
-        <v>18.90717619520132</v>
+        <v>18.9071761952146</v>
       </c>
       <c r="O35" t="n">
-        <v>0.5413822378386418</v>
+        <v>0.5413822378388361</v>
       </c>
       <c r="P35" t="n">
-        <v>0.01125293332805554</v>
+        <v>0.01125293332799951</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.905385300672755e-07</v>
+        <v>9.905385300623205e-07</v>
       </c>
       <c r="R35" t="n">
-        <v>0.005709116952649414</v>
+        <v>0.00570911695262899</v>
       </c>
       <c r="S35" t="n">
-        <v>0.0004224054707591798</v>
+        <v>0.0004224054707540088</v>
       </c>
       <c r="T35" t="n">
-        <v>0.0001780628979254259</v>
+        <v>0.000178062897922151</v>
       </c>
     </row>
     <row r="36">
@@ -2651,58 +2651,58 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>38.76857557905482</v>
+        <v>38.76857557905652</v>
       </c>
       <c r="D36" t="n">
-        <v>4.656929313422943</v>
+        <v>4.656929313422442</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0779273555212522</v>
+        <v>0.07792735552045418</v>
       </c>
       <c r="F36" t="n">
-        <v>7636.52008637673</v>
+        <v>7636.520086376746</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04029302664485749</v>
+        <v>0.04029302664485758</v>
       </c>
       <c r="H36" t="n">
-        <v>2.724405340068004e-05</v>
+        <v>2.724405340068882e-05</v>
       </c>
       <c r="I36" t="n">
-        <v>1.68704142155843</v>
+        <v>1.687041421559171</v>
       </c>
       <c r="J36" t="n">
-        <v>0.005676501916034458</v>
+        <v>0.005676501916038267</v>
       </c>
       <c r="K36" t="n">
-        <v>5.813254979283778</v>
+        <v>5.813254979283288</v>
       </c>
       <c r="L36" t="n">
-        <v>0.228293860312462</v>
+        <v>0.2282938603125263</v>
       </c>
       <c r="M36" t="n">
-        <v>388.9831686619962</v>
+        <v>388.9831686619657</v>
       </c>
       <c r="N36" t="n">
-        <v>20.07380486598485</v>
+        <v>20.07380486599142</v>
       </c>
       <c r="O36" t="n">
-        <v>0.594722170872758</v>
+        <v>0.5947221708728228</v>
       </c>
       <c r="P36" t="n">
-        <v>0.01284691758697712</v>
+        <v>0.01284691758695211</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.131034531739219e-06</v>
+        <v>1.131034531737008e-06</v>
       </c>
       <c r="R36" t="n">
-        <v>0.00634563163294091</v>
+        <v>0.006345631632931692</v>
       </c>
       <c r="S36" t="n">
-        <v>0.0004879134631743556</v>
+        <v>0.0004879134631721805</v>
       </c>
       <c r="T36" t="n">
-        <v>0.0002110941449348733</v>
+        <v>0.000211094144933509</v>
       </c>
     </row>
     <row r="37">
@@ -2713,58 +2713,58 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>37.90930213876211</v>
+        <v>37.90930213876934</v>
       </c>
       <c r="D37" t="n">
-        <v>4.751186528320812</v>
+        <v>4.751186528318742</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07759873386795595</v>
+        <v>0.07759873386604701</v>
       </c>
       <c r="F37" t="n">
-        <v>7562.628756703363</v>
+        <v>7562.628756703455</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0399031494126003</v>
+        <v>0.03990314941260078</v>
       </c>
       <c r="H37" t="n">
-        <v>2.891869713143665e-05</v>
+        <v>2.891869713147779e-05</v>
       </c>
       <c r="I37" t="n">
-        <v>1.733188316480913</v>
+        <v>1.733188316482614</v>
       </c>
       <c r="J37" t="n">
-        <v>0.005834399542975951</v>
+        <v>0.005834399542985667</v>
       </c>
       <c r="K37" t="n">
-        <v>5.757025547045902</v>
+        <v>5.757025547047423</v>
       </c>
       <c r="L37" t="n">
-        <v>0.2432400839846019</v>
+        <v>0.243240083984893</v>
       </c>
       <c r="M37" t="n">
-        <v>397.3678846477295</v>
+        <v>397.3678846475761</v>
       </c>
       <c r="N37" t="n">
-        <v>21.25560206275012</v>
+        <v>21.25560206277726</v>
       </c>
       <c r="O37" t="n">
-        <v>0.6506964539682145</v>
+        <v>0.6506964539678909</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0145896575677179</v>
+        <v>0.01458965756761303</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.284660756411055e-06</v>
+        <v>1.284660756401786e-06</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0070420605805256</v>
+        <v>0.007042060580484001</v>
       </c>
       <c r="S37" t="n">
-        <v>0.0005602325814421361</v>
+        <v>0.000560232581436001</v>
       </c>
       <c r="T37" t="n">
-        <v>0.0002486108375997362</v>
+        <v>0.0002486108375964755</v>
       </c>
     </row>
     <row r="38">
@@ -2775,58 +2775,58 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>37.06912825948992</v>
+        <v>37.0691282595017</v>
       </c>
       <c r="D38" t="n">
-        <v>4.84120325332476</v>
+        <v>4.841203253321445</v>
       </c>
       <c r="E38" t="n">
-        <v>0.07724537709860931</v>
+        <v>0.07724537709683069</v>
       </c>
       <c r="F38" t="n">
-        <v>7489.453086664934</v>
+        <v>7489.453086665103</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03951704825798228</v>
+        <v>0.03951704825798318</v>
       </c>
       <c r="H38" t="n">
-        <v>3.061385894385842e-05</v>
+        <v>3.061385894392247e-05</v>
       </c>
       <c r="I38" t="n">
-        <v>1.778118024282792</v>
+        <v>1.778118024284161</v>
       </c>
       <c r="J38" t="n">
-        <v>0.005988182404792135</v>
+        <v>0.005988182404800485</v>
       </c>
       <c r="K38" t="n">
-        <v>5.701346482818345</v>
+        <v>5.701346482819908</v>
       </c>
       <c r="L38" t="n">
-        <v>0.2584496854356939</v>
+        <v>0.2584496854361756</v>
       </c>
       <c r="M38" t="n">
-        <v>405.4062748148912</v>
+        <v>405.4062748146406</v>
       </c>
       <c r="N38" t="n">
-        <v>22.45163446491927</v>
+        <v>22.45163446496041</v>
       </c>
       <c r="O38" t="n">
-        <v>0.7092768727711924</v>
+        <v>0.7092768727713056</v>
       </c>
       <c r="P38" t="n">
-        <v>0.0164855739481754</v>
+        <v>0.01648557394800539</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.451808255739718e-06</v>
+        <v>1.451808255724687e-06</v>
       </c>
       <c r="R38" t="n">
-        <v>0.007799947090033558</v>
+        <v>0.007799947089969448</v>
       </c>
       <c r="S38" t="n">
-        <v>0.0006398450941510735</v>
+        <v>0.0006398450941376194</v>
       </c>
       <c r="T38" t="n">
-        <v>0.0002909309547902471</v>
+        <v>0.0002909309547821027</v>
       </c>
     </row>
     <row r="39">
@@ -2837,58 +2837,58 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>36.24761389520011</v>
+        <v>36.24761389521568</v>
       </c>
       <c r="D39" t="n">
-        <v>4.927101949955055</v>
+        <v>4.927101949950746</v>
       </c>
       <c r="E39" t="n">
-        <v>0.07690042415036745</v>
+        <v>0.07690042415048161</v>
       </c>
       <c r="F39" t="n">
-        <v>7416.986128887819</v>
+        <v>7416.98612888807</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0391346865241614</v>
+        <v>0.03913468652416273</v>
       </c>
       <c r="H39" t="n">
-        <v>3.232717164477103e-05</v>
+        <v>3.232717164485081e-05</v>
       </c>
       <c r="I39" t="n">
-        <v>1.821813748704659</v>
+        <v>1.821813748703865</v>
       </c>
       <c r="J39" t="n">
-        <v>0.006137726766409154</v>
+        <v>0.006137726766405998</v>
       </c>
       <c r="K39" t="n">
-        <v>5.646192097327864</v>
+        <v>5.646192097327567</v>
       </c>
       <c r="L39" t="n">
-        <v>0.27390437759588</v>
+        <v>0.2739043775965362</v>
       </c>
       <c r="M39" t="n">
-        <v>413.1078593570764</v>
+        <v>413.1078593567485</v>
       </c>
       <c r="N39" t="n">
-        <v>23.66042896833497</v>
+        <v>23.66042896838442</v>
       </c>
       <c r="O39" t="n">
-        <v>0.770451278669562</v>
+        <v>0.770451278670945</v>
       </c>
       <c r="P39" t="n">
-        <v>0.01854106542533036</v>
+        <v>0.01854106542510497</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.633042826377958e-06</v>
+        <v>1.633042826358022e-06</v>
       </c>
       <c r="R39" t="n">
-        <v>0.008621666229114786</v>
+        <v>0.00862166622903607</v>
       </c>
       <c r="S39" t="n">
-        <v>0.0007272993775705823</v>
+        <v>0.0007272993775461347</v>
       </c>
       <c r="T39" t="n">
-        <v>0.0003383939886915181</v>
+        <v>0.0003383939886753501</v>
       </c>
     </row>
     <row r="40">
@@ -2899,58 +2899,58 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>35.44434022632301</v>
+        <v>35.44434022634239</v>
       </c>
       <c r="D40" t="n">
-        <v>5.008998404324463</v>
+        <v>5.008998404319043</v>
       </c>
       <c r="E40" t="n">
-        <v>0.07656849123622263</v>
+        <v>0.07656849123566634</v>
       </c>
       <c r="F40" t="n">
-        <v>7345.221005753942</v>
+        <v>7345.221005754235</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03875602792235094</v>
+        <v>0.03875602792235251</v>
       </c>
       <c r="H40" t="n">
-        <v>3.405644080288648e-05</v>
+        <v>3.4056440802993e-05</v>
       </c>
       <c r="I40" t="n">
-        <v>1.864288037551578</v>
+        <v>1.864288037551395</v>
       </c>
       <c r="J40" t="n">
-        <v>0.006283065718233595</v>
+        <v>0.006283065718234154</v>
       </c>
       <c r="K40" t="n">
-        <v>5.591549534701458</v>
+        <v>5.591549534702739</v>
       </c>
       <c r="L40" t="n">
-        <v>0.2895865531641135</v>
+        <v>0.2895865531649394</v>
       </c>
       <c r="M40" t="n">
-        <v>420.4816524454209</v>
+        <v>420.4816524450068</v>
       </c>
       <c r="N40" t="n">
-        <v>24.88063843701325</v>
+        <v>24.88063843707929</v>
       </c>
       <c r="O40" t="n">
-        <v>0.8341936266018365</v>
+        <v>0.8341936266023424</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0207622262773217</v>
+        <v>0.02076222627703756</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.82890346310425e-06</v>
+        <v>1.828903463079127e-06</v>
       </c>
       <c r="R40" t="n">
-        <v>0.009509406242892112</v>
+        <v>0.009509406242786178</v>
       </c>
       <c r="S40" t="n">
-        <v>0.0008231953339642693</v>
+        <v>0.0008231953339403872</v>
       </c>
       <c r="T40" t="n">
-        <v>0.0003913864493539719</v>
+        <v>0.0003913864493393178</v>
       </c>
     </row>
     <row r="41">
@@ -2961,58 +2961,58 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>34.65890030345079</v>
+        <v>34.658900303471</v>
       </c>
       <c r="D41" t="n">
-        <v>5.087003703099059</v>
+        <v>5.087003703093462</v>
       </c>
       <c r="E41" t="n">
-        <v>0.07621892324728211</v>
+        <v>0.07621892324731379</v>
       </c>
       <c r="F41" t="n">
-        <v>7274.150544553748</v>
+        <v>7274.150544554074</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03838103460675549</v>
+        <v>0.03838103460675722</v>
       </c>
       <c r="H41" t="n">
-        <v>3.579966318994042e-05</v>
+        <v>3.579966319004504e-05</v>
       </c>
       <c r="I41" t="n">
-        <v>1.905590897025523</v>
+        <v>1.905590897024628</v>
       </c>
       <c r="J41" t="n">
-        <v>0.006424438740010539</v>
+        <v>0.006424438740007515</v>
       </c>
       <c r="K41" t="n">
-        <v>5.537450418297448</v>
+        <v>5.537450418298129</v>
       </c>
       <c r="L41" t="n">
-        <v>0.3054789745228486</v>
+        <v>0.3054789745237</v>
       </c>
       <c r="M41" t="n">
-        <v>427.5363034755579</v>
+        <v>427.5363034751286</v>
       </c>
       <c r="N41" t="n">
-        <v>26.11105504687927</v>
+        <v>26.11105504694401</v>
       </c>
       <c r="O41" t="n">
-        <v>0.9004522666398118</v>
+        <v>0.9004522666413787</v>
       </c>
       <c r="P41" t="n">
-        <v>0.02315494818724951</v>
+        <v>0.02315494818695875</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.0399114547142e-06</v>
+        <v>2.039911454688482e-06</v>
       </c>
       <c r="R41" t="n">
-        <v>0.01046514417751273</v>
+        <v>0.0104651441774102</v>
       </c>
       <c r="S41" t="n">
-        <v>0.0009282576653125165</v>
+        <v>0.0009282576652820436</v>
       </c>
       <c r="T41" t="n">
-        <v>0.0004504005126169421</v>
+        <v>0.000450400512596916</v>
       </c>
     </row>
     <row r="42">
@@ -3023,58 +3023,58 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>33.89087060121525</v>
+        <v>33.89087060123327</v>
       </c>
       <c r="D42" t="n">
-        <v>5.161235495436926</v>
+        <v>5.161235495432068</v>
       </c>
       <c r="E42" t="n">
-        <v>0.07587031933439685</v>
+        <v>0.07587031933555634</v>
       </c>
       <c r="F42" t="n">
-        <v>7203.767984655015</v>
+        <v>7203.76798465535</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03800967090584778</v>
+        <v>0.03800967090584955</v>
       </c>
       <c r="H42" t="n">
-        <v>3.755456857425359e-05</v>
+        <v>3.755456857433179e-05</v>
       </c>
       <c r="I42" t="n">
-        <v>1.945720024951225</v>
+        <v>1.945720024949092</v>
       </c>
       <c r="J42" t="n">
-        <v>0.006561797101303457</v>
+        <v>0.006561797101293873</v>
       </c>
       <c r="K42" t="n">
-        <v>5.483864258927884</v>
+        <v>5.483864258926848</v>
       </c>
       <c r="L42" t="n">
-        <v>0.3215638878139732</v>
+        <v>0.3215638878147055</v>
       </c>
       <c r="M42" t="n">
-        <v>434.2809712299648</v>
+        <v>434.2809712295905</v>
       </c>
       <c r="N42" t="n">
-        <v>27.3502764332345</v>
+        <v>27.35027643328295</v>
       </c>
       <c r="O42" t="n">
-        <v>0.9692113044972219</v>
+        <v>0.9692113045009697</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0257254057498864</v>
+        <v>0.02572540574964002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.266612815333589e-06</v>
+        <v>2.266612815311778e-06</v>
       </c>
       <c r="R42" t="n">
-        <v>0.01149115200567174</v>
+        <v>0.01149115200559837</v>
       </c>
       <c r="S42" t="n">
-        <v>0.001043036798367632</v>
+        <v>0.001043036798327913</v>
       </c>
       <c r="T42" t="n">
-        <v>0.0005157807984603583</v>
+        <v>0.0005157807984318062</v>
       </c>
     </row>
     <row r="43">
@@ -3085,58 +3085,58 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>33.13984153686497</v>
+        <v>33.13984153688107</v>
       </c>
       <c r="D43" t="n">
-        <v>5.231806502286112</v>
+        <v>5.231806502281831</v>
       </c>
       <c r="E43" t="n">
-        <v>0.07551884608593031</v>
+        <v>0.07551884608659153</v>
       </c>
       <c r="F43" t="n">
-        <v>7134.066423229948</v>
+        <v>7134.066423230268</v>
       </c>
       <c r="G43" t="n">
-        <v>0.03764190039782558</v>
+        <v>0.03764190039782729</v>
       </c>
       <c r="H43" t="n">
-        <v>3.931906369149599e-05</v>
+        <v>3.931906369155725e-05</v>
       </c>
       <c r="I43" t="n">
-        <v>1.984696915939163</v>
+        <v>1.984696915937552</v>
       </c>
       <c r="J43" t="n">
-        <v>0.006695222980711614</v>
+        <v>0.006695222980704974</v>
       </c>
       <c r="K43" t="n">
-        <v>5.43079113495457</v>
+        <v>5.430791134954317</v>
       </c>
       <c r="L43" t="n">
-        <v>0.3378241041871016</v>
+        <v>0.337824104187726</v>
       </c>
       <c r="M43" t="n">
-        <v>440.7244348535727</v>
+        <v>440.7244348532407</v>
       </c>
       <c r="N43" t="n">
-        <v>28.5970216065986</v>
+        <v>28.59702160663748</v>
       </c>
       <c r="O43" t="n">
-        <v>1.040435892914289</v>
+        <v>1.040435892918719</v>
       </c>
       <c r="P43" t="n">
-        <v>0.02847953554285344</v>
+        <v>0.02847953554264643</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.509532668181181e-06</v>
+        <v>2.509532668162844e-06</v>
       </c>
       <c r="R43" t="n">
-        <v>0.01258951063753706</v>
+        <v>0.01258951063748318</v>
       </c>
       <c r="S43" t="n">
-        <v>0.001168169856450126</v>
+        <v>0.001168169856408936</v>
       </c>
       <c r="T43" t="n">
-        <v>0.0005879472391617377</v>
+        <v>0.0005879472391310846</v>
       </c>
     </row>
     <row r="44">
@@ -3147,58 +3147,58 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>33.13984153686497</v>
+        <v>33.13984153688107</v>
       </c>
       <c r="D44" t="n">
-        <v>5.231806502286112</v>
+        <v>5.231806502281831</v>
       </c>
       <c r="E44" t="n">
-        <v>0.07551884608593031</v>
+        <v>0.07551884608659153</v>
       </c>
       <c r="F44" t="n">
-        <v>7134.066423229948</v>
+        <v>7134.066423230268</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03764190039782558</v>
+        <v>0.03764190039782729</v>
       </c>
       <c r="H44" t="n">
-        <v>3.931906369149599e-05</v>
+        <v>3.931906369155725e-05</v>
       </c>
       <c r="I44" t="n">
-        <v>1.984696915939163</v>
+        <v>1.984696915937552</v>
       </c>
       <c r="J44" t="n">
-        <v>0.006695222980711614</v>
+        <v>0.006695222980704974</v>
       </c>
       <c r="K44" t="n">
-        <v>5.43079113495457</v>
+        <v>5.430791134954317</v>
       </c>
       <c r="L44" t="n">
-        <v>0.3378241041871016</v>
+        <v>0.337824104187726</v>
       </c>
       <c r="M44" t="n">
-        <v>440.7244348535727</v>
+        <v>440.7244348532407</v>
       </c>
       <c r="N44" t="n">
-        <v>28.5970216065986</v>
+        <v>28.59702160663748</v>
       </c>
       <c r="O44" t="n">
-        <v>1.040435892914289</v>
+        <v>1.040435892918719</v>
       </c>
       <c r="P44" t="n">
-        <v>0.02847953554285344</v>
+        <v>0.02847953554264643</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.509532668181181e-06</v>
+        <v>2.509532668162844e-06</v>
       </c>
       <c r="R44" t="n">
-        <v>0.01258951063753706</v>
+        <v>0.01258951063748318</v>
       </c>
       <c r="S44" t="n">
-        <v>0.001168169856450126</v>
+        <v>0.001168169856408936</v>
       </c>
       <c r="T44" t="n">
-        <v>0.0005879472391617377</v>
+        <v>0.0005879472391310846</v>
       </c>
     </row>
     <row r="45">
@@ -3209,58 +3209,58 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>33.13984153679068</v>
+        <v>33.13984153680678</v>
       </c>
       <c r="D45" t="n">
-        <v>5.231806502297856</v>
+        <v>5.231806502293575</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02704496720623313</v>
+        <v>0.02704496720691428</v>
       </c>
       <c r="F45" t="n">
-        <v>7134.066423223012</v>
+        <v>7134.066423223332</v>
       </c>
       <c r="G45" t="n">
-        <v>3.764274037533301e-12</v>
+        <v>3.764274037533472e-12</v>
       </c>
       <c r="H45" t="n">
-        <v>3.931905881473805e-05</v>
+        <v>3.931905881479931e-05</v>
       </c>
       <c r="I45" t="n">
-        <v>2.033170680922187</v>
+        <v>2.033170680920556</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0002533926244342528</v>
+        <v>0.0002533926260276602</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2885125552014322</v>
+        <v>0.2885125562409422</v>
       </c>
       <c r="L45" t="n">
-        <v>0.3442658970199599</v>
+        <v>0.3442658970189844</v>
       </c>
       <c r="M45" t="n">
-        <v>445.9043383149981</v>
+        <v>445.9043383136267</v>
       </c>
       <c r="N45" t="n">
-        <v>28.59702160672191</v>
+        <v>28.59702160676078</v>
       </c>
       <c r="O45" t="n">
-        <v>1.039055099460519</v>
+        <v>1.039055099464945</v>
       </c>
       <c r="P45" t="n">
-        <v>0.02847953554313798</v>
+        <v>0.02847953554293097</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.518105658691231e-16</v>
+        <v>2.518106093339723e-16</v>
       </c>
       <c r="R45" t="n">
-        <v>0.01396972141263599</v>
+        <v>0.013969721412588</v>
       </c>
       <c r="S45" t="n">
-        <v>0.001168169856464081</v>
+        <v>0.001168169856422891</v>
       </c>
       <c r="T45" t="n">
-        <v>0.0005904567718372665</v>
+        <v>0.0005904567718065953</v>
       </c>
     </row>
     <row r="46">
@@ -3271,58 +3271,58 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>33.13984153671644</v>
+        <v>33.13984153673253</v>
       </c>
       <c r="D46" t="n">
-        <v>5.231806502309609</v>
+        <v>5.231806502305327</v>
       </c>
       <c r="E46" t="n">
-        <v>0.009685808025923504</v>
+        <v>0.009685807952060243</v>
       </c>
       <c r="F46" t="n">
-        <v>7134.066423216074</v>
+        <v>7134.066423216399</v>
       </c>
       <c r="G46" t="n">
-        <v>3.764274037529853e-12</v>
+        <v>3.764274037530023e-12</v>
       </c>
       <c r="H46" t="n">
-        <v>3.931905393798497e-05</v>
+        <v>3.931905393804622e-05</v>
       </c>
       <c r="I46" t="n">
-        <v>2.050529799316887</v>
+        <v>2.050529799389801</v>
       </c>
       <c r="J46" t="n">
-        <v>9.604538933157492e-06</v>
+        <v>9.60452600250229e-06</v>
       </c>
       <c r="K46" t="n">
-        <v>0.01524012623773701</v>
+        <v>0.0152401139333417</v>
       </c>
       <c r="L46" t="n">
-        <v>0.3445096836870601</v>
+        <v>0.3445096837006086</v>
       </c>
       <c r="M46" t="n">
-        <v>446.1776098579597</v>
+        <v>446.1776098699323</v>
       </c>
       <c r="N46" t="n">
-        <v>28.59702160684446</v>
+        <v>28.59702160688334</v>
       </c>
       <c r="O46" t="n">
-        <v>1.037676138498869</v>
+        <v>1.037676138503289</v>
       </c>
       <c r="P46" t="n">
-        <v>0.02847953554342211</v>
+        <v>0.02847953554321511</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.518066523830806e-16</v>
+        <v>2.518066522502363e-16</v>
       </c>
       <c r="R46" t="n">
-        <v>0.01534803919004972</v>
+        <v>0.01534803919000761</v>
       </c>
       <c r="S46" t="n">
-        <v>0.001168169856479826</v>
+        <v>0.001168169856438636</v>
       </c>
       <c r="T46" t="n">
-        <v>0.0005904567718448657</v>
+        <v>0.0005904567718141944</v>
       </c>
     </row>
     <row r="47">
@@ -3333,58 +3333,58 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>33.13984153664218</v>
+        <v>33.13984153665828</v>
       </c>
       <c r="D47" t="n">
-        <v>5.231806502321363</v>
+        <v>5.231806502317083</v>
       </c>
       <c r="E47" t="n">
-        <v>0.003468629637055629</v>
+        <v>0.003468629610338688</v>
       </c>
       <c r="F47" t="n">
-        <v>7134.066423209141</v>
+        <v>7134.066423209464</v>
       </c>
       <c r="G47" t="n">
-        <v>3.764274037526194e-12</v>
+        <v>3.764274037526362e-12</v>
       </c>
       <c r="H47" t="n">
-        <v>3.931904906123401e-05</v>
+        <v>3.931904906129528e-05</v>
       </c>
       <c r="I47" t="n">
-        <v>2.056746963100747</v>
+        <v>2.056746963126514</v>
       </c>
       <c r="J47" t="n">
-        <v>3.603188276931873e-07</v>
+        <v>3.603183882024457e-07</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0008000310358263553</v>
+        <v>0.0008000304243882629</v>
       </c>
       <c r="L47" t="n">
-        <v>0.3445189278550472</v>
+        <v>0.3445189278561049</v>
       </c>
       <c r="M47" t="n">
-        <v>446.1920499069332</v>
+        <v>446.1920499072129</v>
       </c>
       <c r="N47" t="n">
-        <v>28.59702160696698</v>
+        <v>28.59702160700585</v>
       </c>
       <c r="O47" t="n">
-        <v>1.036299007597385</v>
+        <v>1.036299007601799</v>
       </c>
       <c r="P47" t="n">
-        <v>0.02847953554370583</v>
+        <v>0.02847953554349882</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.518034899758652e-16</v>
+        <v>2.51803489953004e-16</v>
       </c>
       <c r="R47" t="n">
-        <v>0.01672446648471725</v>
+        <v>0.01672446648468099</v>
       </c>
       <c r="S47" t="n">
-        <v>0.001168169856497359</v>
+        <v>0.001168169856456169</v>
       </c>
       <c r="T47" t="n">
-        <v>0.0005904567718524647</v>
+        <v>0.0005904567718217939</v>
       </c>
     </row>
     <row r="48">
@@ -3395,58 +3395,58 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>33.13984153656793</v>
+        <v>33.13984153658404</v>
       </c>
       <c r="D48" t="n">
-        <v>5.231806502333117</v>
+        <v>5.231806502328836</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001242194600329904</v>
+        <v>0.001242194591632844</v>
       </c>
       <c r="F48" t="n">
-        <v>7134.066423202204</v>
+        <v>7134.066423202527</v>
       </c>
       <c r="G48" t="n">
-        <v>3.764274037522534e-12</v>
+        <v>3.764274037522704e-12</v>
       </c>
       <c r="H48" t="n">
-        <v>3.931904418448422e-05</v>
+        <v>3.931904418454549e-05</v>
       </c>
       <c r="I48" t="n">
-        <v>2.058973392909616</v>
+        <v>2.058973392917363</v>
       </c>
       <c r="J48" t="n">
-        <v>1.373212479762774e-08</v>
+        <v>1.373210672011429e-08</v>
       </c>
       <c r="K48" t="n">
-        <v>4.234610191665138e-05</v>
+        <v>4.234607098555563e-05</v>
       </c>
       <c r="L48" t="n">
-        <v>0.344519274441467</v>
+        <v>0.3445192744421032</v>
       </c>
       <c r="M48" t="n">
-        <v>446.1928075900307</v>
+        <v>446.19280758973</v>
       </c>
       <c r="N48" t="n">
-        <v>28.59702160708948</v>
+        <v>28.59702160712836</v>
       </c>
       <c r="O48" t="n">
-        <v>1.034923704327339</v>
+        <v>1.034923704331747</v>
       </c>
       <c r="P48" t="n">
-        <v>0.02847953554398913</v>
+        <v>0.02847953554378211</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.518035781563084e-16</v>
+        <v>2.518035781695087e-16</v>
       </c>
       <c r="R48" t="n">
-        <v>0.01809900580824237</v>
+        <v>0.01809900580821198</v>
       </c>
       <c r="S48" t="n">
-        <v>0.001168169856516677</v>
+        <v>0.001168169856475487</v>
       </c>
       <c r="T48" t="n">
-        <v>0.000590456771860064</v>
+        <v>0.0005904567718293934</v>
       </c>
     </row>
     <row r="49">
@@ -3457,58 +3457,58 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>33.13984153649368</v>
+        <v>33.13984153650978</v>
       </c>
       <c r="D49" t="n">
-        <v>5.231806502344871</v>
+        <v>5.23180650234059</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0004448533372911218</v>
+        <v>0.0004448533333717707</v>
       </c>
       <c r="F49" t="n">
-        <v>7134.066423195266</v>
+        <v>7134.066423195591</v>
       </c>
       <c r="G49" t="n">
-        <v>3.764274037518872e-12</v>
+        <v>3.764274037519043e-12</v>
       </c>
       <c r="H49" t="n">
-        <v>3.931903930773522e-05</v>
+        <v>3.931903930779649e-05</v>
       </c>
       <c r="I49" t="n">
-        <v>2.059770732302778</v>
+        <v>2.059770732305747</v>
       </c>
       <c r="J49" t="n">
-        <v>5.188595352065359e-10</v>
+        <v>5.188587114700234e-10</v>
       </c>
       <c r="K49" t="n">
-        <v>2.230809623789236e-06</v>
+        <v>2.230807383969802e-06</v>
       </c>
       <c r="L49" t="n">
-        <v>0.3445192876563926</v>
+        <v>0.3445192876570116</v>
       </c>
       <c r="M49" t="n">
-        <v>446.1928477058149</v>
+        <v>446.1928477054855</v>
       </c>
       <c r="N49" t="n">
-        <v>28.59702160721199</v>
+        <v>28.59702160725086</v>
       </c>
       <c r="O49" t="n">
-        <v>1.033550226263227</v>
+        <v>1.03355022626763</v>
       </c>
       <c r="P49" t="n">
-        <v>0.02847953554427201</v>
+        <v>0.02847953554406499</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.518035511985248e-16</v>
+        <v>2.518035511943052e-16</v>
       </c>
       <c r="R49" t="n">
-        <v>0.01947165966889574</v>
+        <v>0.01947165966887119</v>
       </c>
       <c r="S49" t="n">
-        <v>0.001168169856537779</v>
+        <v>0.001168169856496589</v>
       </c>
       <c r="T49" t="n">
-        <v>0.0005904567718676633</v>
+        <v>0.0005904567718369926</v>
       </c>
     </row>
     <row r="50">
@@ -3519,58 +3519,58 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>33.13984153649368</v>
+        <v>33.13984153650978</v>
       </c>
       <c r="D50" t="n">
-        <v>5.231806502344871</v>
+        <v>5.23180650234059</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0004448533372911218</v>
+        <v>0.0004448533333717707</v>
       </c>
       <c r="F50" t="n">
-        <v>7134.066423195266</v>
+        <v>7134.066423195591</v>
       </c>
       <c r="G50" t="n">
-        <v>3.764274037518871e-12</v>
+        <v>3.764274037519044e-12</v>
       </c>
       <c r="H50" t="n">
-        <v>3.931903930773522e-05</v>
+        <v>3.931903930779649e-05</v>
       </c>
       <c r="I50" t="n">
-        <v>2.059770732302778</v>
+        <v>2.059770732305747</v>
       </c>
       <c r="J50" t="n">
-        <v>5.188595352065359e-10</v>
+        <v>5.188587114700234e-10</v>
       </c>
       <c r="K50" t="n">
-        <v>2.230809623789236e-06</v>
+        <v>2.230807383969802e-06</v>
       </c>
       <c r="L50" t="n">
-        <v>0.3445192876563926</v>
+        <v>0.3445192876570116</v>
       </c>
       <c r="M50" t="n">
-        <v>446.1928477058149</v>
+        <v>446.1928477054855</v>
       </c>
       <c r="N50" t="n">
-        <v>28.59702160721199</v>
+        <v>28.59702160725086</v>
       </c>
       <c r="O50" t="n">
-        <v>1.033550226263227</v>
+        <v>1.03355022626763</v>
       </c>
       <c r="P50" t="n">
-        <v>0.02847953554427201</v>
+        <v>0.02847953554406499</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.518035511985248e-16</v>
+        <v>2.518035511943051e-16</v>
       </c>
       <c r="R50" t="n">
-        <v>0.01947165966889574</v>
+        <v>0.01947165966887119</v>
       </c>
       <c r="S50" t="n">
-        <v>0.001168169856537779</v>
+        <v>0.001168169856496589</v>
       </c>
       <c r="T50" t="n">
-        <v>0.0005904567718676633</v>
+        <v>0.0005904567718369926</v>
       </c>
     </row>
     <row r="51">
@@ -3581,58 +3581,58 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>32.40545393503606</v>
+        <v>32.40545393505177</v>
       </c>
       <c r="D51" t="n">
-        <v>5.29881370656307</v>
+        <v>5.298813706558896</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0482592224010359</v>
+        <v>0.04825922239844214</v>
       </c>
       <c r="F51" t="n">
-        <v>7065.039161372699</v>
+        <v>7065.039161373021</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03727768772183919</v>
+        <v>0.03727768772184088</v>
       </c>
       <c r="H51" t="n">
-        <v>4.11558229710741e-05</v>
+        <v>4.115582297113415e-05</v>
       </c>
       <c r="I51" t="n">
-        <v>2.048530620034123</v>
+        <v>2.048530620035748</v>
       </c>
       <c r="J51" t="n">
-        <v>0.006688349983493646</v>
+        <v>0.00668834998180204</v>
       </c>
       <c r="K51" t="n">
-        <v>5.090736294453129</v>
+        <v>5.090736293325096</v>
       </c>
       <c r="L51" t="n">
-        <v>0.3549126423440149</v>
+        <v>0.3549126423463128</v>
       </c>
       <c r="M51" t="n">
-        <v>447.1547582623353</v>
+        <v>447.1547582631368</v>
       </c>
       <c r="N51" t="n">
-        <v>29.84230930935172</v>
+        <v>29.84230930939071</v>
       </c>
       <c r="O51" t="n">
-        <v>1.107347590995836</v>
+        <v>1.107347591000248</v>
       </c>
       <c r="P51" t="n">
-        <v>0.03140183842974415</v>
+        <v>0.03140183842955271</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.767322630695887e-06</v>
+        <v>2.767322630787764e-06</v>
       </c>
       <c r="R51" t="n">
-        <v>0.02050146746318469</v>
+        <v>0.02050146746316642</v>
       </c>
       <c r="S51" t="n">
-        <v>0.001391567266323459</v>
+        <v>0.001391567266283137</v>
       </c>
       <c r="T51" t="n">
-        <v>0.0006675126514289628</v>
+        <v>0.0006675126513981088</v>
       </c>
     </row>
     <row r="52">
@@ -3643,58 +3643,58 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>31.68734048865134</v>
+        <v>31.68734048866608</v>
       </c>
       <c r="D52" t="n">
-        <v>5.3623575573979</v>
+        <v>5.362357557394004</v>
       </c>
       <c r="E52" t="n">
-        <v>0.06513600540806688</v>
+        <v>0.06513600542991828</v>
       </c>
       <c r="F52" t="n">
-        <v>6996.679787037575</v>
+        <v>6996.679787037881</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03691699909069356</v>
+        <v>0.03691699909069518</v>
       </c>
       <c r="H52" t="n">
-        <v>4.295460444077761e-05</v>
+        <v>4.295460444086667e-05</v>
       </c>
       <c r="I52" t="n">
-        <v>2.067712453493223</v>
+        <v>2.067712453469965</v>
       </c>
       <c r="J52" t="n">
-        <v>0.006983119058356685</v>
+        <v>0.006983119059686866</v>
       </c>
       <c r="K52" t="n">
-        <v>5.309967492122131</v>
+        <v>5.309967493514308</v>
       </c>
       <c r="L52" t="n">
-        <v>0.3714758089991793</v>
+        <v>0.3714758089986918</v>
       </c>
       <c r="M52" t="n">
-        <v>452.7473897790518</v>
+        <v>452.7473897773511</v>
       </c>
       <c r="N52" t="n">
-        <v>31.10067042565455</v>
+        <v>31.10067042568618</v>
       </c>
       <c r="O52" t="n">
-        <v>1.183492115251837</v>
+        <v>1.183492115256171</v>
       </c>
       <c r="P52" t="n">
-        <v>0.03451867601142967</v>
+        <v>0.03451867601126238</v>
       </c>
       <c r="Q52" t="n">
-        <v>3.042305009025654e-06</v>
+        <v>3.042305009010313e-06</v>
       </c>
       <c r="R52" t="n">
-        <v>0.02160989403439251</v>
+        <v>0.02160989403438311</v>
       </c>
       <c r="S52" t="n">
-        <v>0.001622458185149267</v>
+        <v>0.00162245818511132</v>
       </c>
       <c r="T52" t="n">
-        <v>0.0007549846668770727</v>
+        <v>0.0007549846668470864</v>
       </c>
     </row>
     <row r="53">
@@ -3705,58 +3705,58 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>30.98513347665712</v>
+        <v>30.98513347667761</v>
       </c>
       <c r="D53" t="n">
-        <v>5.422538120464728</v>
+        <v>5.422538120459278</v>
       </c>
       <c r="E53" t="n">
-        <v>0.07102781012875252</v>
+        <v>0.07102781004783927</v>
       </c>
       <c r="F53" t="n">
-        <v>6928.981708720174</v>
+        <v>6928.981708720588</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0365597996801259</v>
+        <v>0.03655979968012809</v>
       </c>
       <c r="H53" t="n">
-        <v>4.474226517653976e-05</v>
+        <v>4.474226517650672e-05</v>
       </c>
       <c r="I53" t="n">
-        <v>2.096990416611276</v>
+        <v>2.096990416692511</v>
       </c>
       <c r="J53" t="n">
-        <v>0.007085164290360259</v>
+        <v>0.007085164289443786</v>
       </c>
       <c r="K53" t="n">
-        <v>5.274578420796613</v>
+        <v>5.274578419331502</v>
       </c>
       <c r="L53" t="n">
-        <v>0.3882353554056469</v>
+        <v>0.3882353554064658</v>
       </c>
       <c r="M53" t="n">
-        <v>458.3175864158488</v>
+        <v>458.3175864168874</v>
       </c>
       <c r="N53" t="n">
-        <v>32.36378675909297</v>
+        <v>32.36378675914495</v>
       </c>
       <c r="O53" t="n">
-        <v>1.261943230448791</v>
+        <v>1.261943230454005</v>
       </c>
       <c r="P53" t="n">
-        <v>0.03783504841718482</v>
+        <v>0.03783504841695161</v>
       </c>
       <c r="Q53" t="n">
-        <v>3.334871108774986e-06</v>
+        <v>3.334871108754628e-06</v>
       </c>
       <c r="R53" t="n">
-        <v>0.02279850581640436</v>
+        <v>0.02279850581637617</v>
       </c>
       <c r="S53" t="n">
-        <v>0.001861667496163035</v>
+        <v>0.001861667496112086</v>
       </c>
       <c r="T53" t="n">
-        <v>0.0008508158611289243</v>
+        <v>0.0008508158610910785</v>
       </c>
     </row>
     <row r="54">
@@ -3767,58 +3767,58 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>30.29848770147809</v>
+        <v>30.29848770149696</v>
       </c>
       <c r="D54" t="n">
-        <v>5.479449098381548</v>
+        <v>5.479449098376551</v>
       </c>
       <c r="E54" t="n">
-        <v>0.07276125956624219</v>
+        <v>0.0727612595480203</v>
       </c>
       <c r="F54" t="n">
-        <v>6861.938657113652</v>
+        <v>6861.938657114042</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03620605642610808</v>
+        <v>0.03620605642611013</v>
       </c>
       <c r="H54" t="n">
-        <v>4.652699640651351e-05</v>
+        <v>4.652699640656108e-05</v>
       </c>
       <c r="I54" t="n">
-        <v>2.129420809111587</v>
+        <v>2.12942080912897</v>
       </c>
       <c r="J54" t="n">
-        <v>0.007191661774788961</v>
+        <v>0.007191661774779323</v>
       </c>
       <c r="K54" t="n">
-        <v>5.222239362120943</v>
+        <v>5.222239361979291</v>
       </c>
       <c r="L54" t="n">
-        <v>0.4050577091829418</v>
+        <v>0.4050577091834885</v>
       </c>
       <c r="M54" t="n">
-        <v>463.6346844220183</v>
+        <v>463.6346844217667</v>
       </c>
       <c r="N54" t="n">
-        <v>33.63029958617387</v>
+        <v>33.63029958621834</v>
       </c>
       <c r="O54" t="n">
-        <v>1.342651673773489</v>
+        <v>1.342651673778564</v>
       </c>
       <c r="P54" t="n">
-        <v>0.04135556114802003</v>
+        <v>0.04135556114782094</v>
       </c>
       <c r="Q54" t="n">
-        <v>3.64547022543689e-06</v>
+        <v>3.645470225419107e-06</v>
       </c>
       <c r="R54" t="n">
-        <v>0.0240687150104516</v>
+        <v>0.02406871501043569</v>
       </c>
       <c r="S54" t="n">
-        <v>0.002109984241595054</v>
+        <v>0.002109984241547868</v>
       </c>
       <c r="T54" t="n">
-        <v>0.0009554490360154831</v>
+        <v>0.0009554490359790722</v>
       </c>
     </row>
     <row r="55">
@@ -3829,58 +3829,58 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>29.62706477374627</v>
+        <v>29.62706477376682</v>
       </c>
       <c r="D55" t="n">
-        <v>5.533182142299175</v>
+        <v>5.533182142293729</v>
       </c>
       <c r="E55" t="n">
-        <v>0.07311736320819717</v>
+        <v>0.07311736318537912</v>
       </c>
       <c r="F55" t="n">
-        <v>6795.544415550805</v>
+        <v>6795.544415551229</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03585573652724012</v>
+        <v>0.03585573652724235</v>
       </c>
       <c r="H55" t="n">
-        <v>4.831124412091838e-05</v>
+        <v>4.83112441209659e-05</v>
       </c>
       <c r="I55" t="n">
-        <v>2.162184650054897</v>
+        <v>2.162184650076881</v>
       </c>
       <c r="J55" t="n">
-        <v>0.007303859157345462</v>
+        <v>0.007303859157880258</v>
       </c>
       <c r="K55" t="n">
-        <v>5.172885020402964</v>
+        <v>5.172885020850901</v>
       </c>
       <c r="L55" t="n">
-        <v>0.4219594501124812</v>
+        <v>0.4219594501124939</v>
       </c>
       <c r="M55" t="n">
-        <v>468.6859044504171</v>
+        <v>468.6859044495395</v>
       </c>
       <c r="N55" t="n">
-        <v>34.89922276924487</v>
+        <v>34.89922276929274</v>
       </c>
       <c r="O55" t="n">
-        <v>1.425565919168538</v>
+        <v>1.425565919173893</v>
       </c>
       <c r="P55" t="n">
-        <v>0.04508463690001957</v>
+        <v>0.04508463689980834</v>
       </c>
       <c r="Q55" t="n">
-        <v>3.974490035889333e-06</v>
+        <v>3.974490035870594e-06</v>
       </c>
       <c r="R55" t="n">
-        <v>0.02542184912804924</v>
+        <v>0.02542184912803081</v>
       </c>
       <c r="S55" t="n">
-        <v>0.002368193768978076</v>
+        <v>0.00236819376892736</v>
       </c>
       <c r="T55" t="n">
-        <v>0.0010693332526294</v>
+        <v>0.001069333252590513</v>
       </c>
     </row>
     <row r="56">
@@ -3891,58 +3891,58 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>28.9705146370547</v>
+        <v>28.97051463706077</v>
       </c>
       <c r="D56" t="n">
-        <v>5.583831825906086</v>
+        <v>5.583831825904565</v>
       </c>
       <c r="E56" t="n">
-        <v>0.07305129471803362</v>
+        <v>0.07305129475484905</v>
       </c>
       <c r="F56" t="n">
-        <v>6729.792470055484</v>
+        <v>6729.792470055644</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03550880561344334</v>
+        <v>0.03550880561344417</v>
       </c>
       <c r="H56" t="n">
-        <v>5.009481233281134e-05</v>
+        <v>5.009481233287752e-05</v>
       </c>
       <c r="I56" t="n">
-        <v>2.194325387852384</v>
+        <v>2.194325387814268</v>
       </c>
       <c r="J56" t="n">
-        <v>0.007413886243268908</v>
+        <v>0.007413886243186076</v>
       </c>
       <c r="K56" t="n">
-        <v>5.123413578256686</v>
+        <v>5.123413578412308</v>
       </c>
       <c r="L56" t="n">
-        <v>0.4389453176890674</v>
+        <v>0.438945317689784</v>
       </c>
       <c r="M56" t="n">
-        <v>473.4817720531028</v>
+        <v>473.4817720528255</v>
       </c>
       <c r="N56" t="n">
-        <v>36.16958945930173</v>
+        <v>36.16958945930888</v>
       </c>
       <c r="O56" t="n">
-        <v>1.51062941632448</v>
+        <v>1.510629416327622</v>
       </c>
       <c r="P56" t="n">
-        <v>0.04902673420606399</v>
+        <v>0.04902673420605144</v>
       </c>
       <c r="Q56" t="n">
-        <v>4.322325809457004e-06</v>
+        <v>4.322325809455868e-06</v>
       </c>
       <c r="R56" t="n">
-        <v>0.02685921157550723</v>
+        <v>0.02685921157554931</v>
       </c>
       <c r="S56" t="n">
-        <v>0.00263712135032535</v>
+        <v>0.002637121350308786</v>
       </c>
       <c r="T56" t="n">
-        <v>0.001192950090306762</v>
+        <v>0.001192950090287015</v>
       </c>
     </row>
     <row r="57">
@@ -3953,58 +3953,58 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>28.32842946414486</v>
+        <v>28.32842946405994</v>
       </c>
       <c r="D57" t="n">
-        <v>5.631507941500829</v>
+        <v>5.63150794152377</v>
       </c>
       <c r="E57" t="n">
-        <v>0.07281289811210626</v>
+        <v>0.07281289815253003</v>
       </c>
       <c r="F57" t="n">
-        <v>6664.675095413563</v>
+        <v>6664.675095411984</v>
       </c>
       <c r="G57" t="n">
-        <v>0.03516522292370868</v>
+        <v>0.03516522292370036</v>
       </c>
       <c r="H57" t="n">
-        <v>5.187628396336599e-05</v>
+        <v>5.187628396304564e-05</v>
       </c>
       <c r="I57" t="n">
-        <v>2.225608931675701</v>
+        <v>2.225608931638563</v>
       </c>
       <c r="J57" t="n">
-        <v>0.007520712155715627</v>
+        <v>0.007520712155601294</v>
       </c>
       <c r="K57" t="n">
-        <v>5.073718774700048</v>
+        <v>5.073718774808449</v>
       </c>
       <c r="L57" t="n">
-        <v>0.4560031770752003</v>
+        <v>0.4560031770724377</v>
       </c>
       <c r="M57" t="n">
-        <v>478.0310185975329</v>
+        <v>478.0310185992257</v>
       </c>
       <c r="N57" t="n">
-        <v>37.44029443796553</v>
+        <v>37.44029443772867</v>
       </c>
       <c r="O57" t="n">
-        <v>1.597771295330205</v>
+        <v>1.597771295316986</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0531868345444584</v>
+        <v>0.05318683454554322</v>
       </c>
       <c r="Q57" t="n">
-        <v>4.689418298944114e-06</v>
+        <v>4.689418299040131e-06</v>
       </c>
       <c r="R57" t="n">
-        <v>0.02838219831213476</v>
+        <v>0.02838219831247848</v>
       </c>
       <c r="S57" t="n">
-        <v>0.002917746865418419</v>
+        <v>0.002917746865623059</v>
       </c>
       <c r="T57" t="n">
-        <v>0.001326887411656866</v>
+        <v>0.001326887411771158</v>
       </c>
     </row>
     <row r="58">
@@ -4015,58 +4015,58 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>27.7005525146954</v>
+        <v>27.70055251493833</v>
       </c>
       <c r="D58" t="n">
-        <v>5.676279452510112</v>
+        <v>5.676279452445137</v>
       </c>
       <c r="E58" t="n">
-        <v>0.07246322258965041</v>
+        <v>0.07246322253780009</v>
       </c>
       <c r="F58" t="n">
-        <v>6600.187374278941</v>
+        <v>6600.187374283694</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03482496251234946</v>
+        <v>0.03482496251237455</v>
       </c>
       <c r="H58" t="n">
-        <v>5.365464828230603e-05</v>
+        <v>5.365464828323705e-05</v>
       </c>
       <c r="I58" t="n">
-        <v>2.255986216709275</v>
+        <v>2.255986216749219</v>
       </c>
       <c r="J58" t="n">
-        <v>0.007624648535657394</v>
+        <v>0.007624648535658735</v>
       </c>
       <c r="K58" t="n">
-        <v>5.024464623290899</v>
+        <v>5.024464622980074</v>
       </c>
       <c r="L58" t="n">
-        <v>0.4731234207019475</v>
+        <v>0.4731234207107037</v>
       </c>
       <c r="M58" t="n">
-        <v>482.3384012843343</v>
+        <v>482.3384012795304</v>
       </c>
       <c r="N58" t="n">
-        <v>38.71065133257103</v>
+        <v>38.71065133319996</v>
       </c>
       <c r="O58" t="n">
-        <v>1.686945023689411</v>
+        <v>1.686945023737289</v>
       </c>
       <c r="P58" t="n">
-        <v>0.05756798439490458</v>
+        <v>0.05756798439219886</v>
       </c>
       <c r="Q58" t="n">
-        <v>5.076037219039737e-06</v>
+        <v>5.076037218800137e-06</v>
       </c>
       <c r="R58" t="n">
-        <v>0.02999163766997284</v>
+        <v>0.02999163766931182</v>
       </c>
       <c r="S58" t="n">
-        <v>0.003210693827774643</v>
+        <v>0.003210693827178575</v>
       </c>
       <c r="T58" t="n">
-        <v>0.001471525641491204</v>
+        <v>0.001471525641110581</v>
       </c>
     </row>
     <row r="59">
@@ -4077,58 +4077,58 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>27.08650871223723</v>
+        <v>27.08650871236089</v>
       </c>
       <c r="D59" t="n">
-        <v>5.718246775479956</v>
+        <v>5.718246775447108</v>
       </c>
       <c r="E59" t="n">
-        <v>0.07207160036392316</v>
+        <v>0.07207160034997169</v>
       </c>
       <c r="F59" t="n">
-        <v>6536.322005811189</v>
+        <v>6536.322005813689</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03448798585750566</v>
+        <v>0.03448798585751885</v>
       </c>
       <c r="H59" t="n">
-        <v>5.542844197619575e-05</v>
+        <v>5.542844197665958e-05</v>
       </c>
       <c r="I59" t="n">
-        <v>2.28540619578601</v>
+        <v>2.285406195793338</v>
       </c>
       <c r="J59" t="n">
-        <v>0.007725434615978194</v>
+        <v>0.007725434615996227</v>
       </c>
       <c r="K59" t="n">
-        <v>4.975750363700835</v>
+        <v>4.975750363654466</v>
       </c>
       <c r="L59" t="n">
-        <v>0.4902926683382584</v>
+        <v>0.4902926683427372</v>
       </c>
       <c r="M59" t="n">
-        <v>486.4117255902923</v>
+        <v>486.4117255877469</v>
       </c>
       <c r="N59" t="n">
-        <v>39.97968138152256</v>
+        <v>39.97968138182673</v>
       </c>
       <c r="O59" t="n">
-        <v>1.778078709856552</v>
+        <v>1.778078709883714</v>
       </c>
       <c r="P59" t="n">
-        <v>0.06217442206742813</v>
+        <v>0.06217442206620685</v>
       </c>
       <c r="Q59" t="n">
-        <v>5.48255785475926e-06</v>
+        <v>5.48255785465107e-06</v>
       </c>
       <c r="R59" t="n">
-        <v>0.03168862398670175</v>
+        <v>0.03168862398646052</v>
       </c>
       <c r="S59" t="n">
-        <v>0.003516884858576947</v>
+        <v>0.003516884858269167</v>
       </c>
       <c r="T59" t="n">
-        <v>0.001627441697024935</v>
+        <v>0.001627441696816155</v>
       </c>
     </row>
     <row r="60">
@@ -4139,58 +4139,58 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>26.48617345811578</v>
+        <v>26.48617345809178</v>
       </c>
       <c r="D60" t="n">
-        <v>5.757443196580382</v>
+        <v>5.757443196586912</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0716505217545642</v>
+        <v>0.07165052174586244</v>
       </c>
       <c r="F60" t="n">
-        <v>6473.076539487375</v>
+        <v>6473.07653948695</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0341542800293369</v>
+        <v>0.03415428002933463</v>
       </c>
       <c r="H60" t="n">
-        <v>5.719717278082554e-05</v>
+        <v>5.719717278070049e-05</v>
       </c>
       <c r="I60" t="n">
-        <v>2.313862741138871</v>
+        <v>2.313862741148759</v>
       </c>
       <c r="J60" t="n">
-        <v>0.00782303463850563</v>
+        <v>0.007823034638539389</v>
       </c>
       <c r="K60" t="n">
-        <v>4.927585406497427</v>
+        <v>4.927585406470913</v>
       </c>
       <c r="L60" t="n">
-        <v>0.507506342138302</v>
+        <v>0.5075063421372203</v>
       </c>
       <c r="M60" t="n">
-        <v>490.2536044872176</v>
+        <v>490.2536044877567</v>
       </c>
       <c r="N60" t="n">
-        <v>41.24706432393535</v>
+        <v>41.24706432386455</v>
       </c>
       <c r="O60" t="n">
-        <v>1.871147670812682</v>
+        <v>1.87114767080975</v>
       </c>
       <c r="P60" t="n">
-        <v>0.06700750664157215</v>
+        <v>0.06700750664192391</v>
       </c>
       <c r="Q60" t="n">
-        <v>5.909100558237742e-06</v>
+        <v>5.909100558268865e-06</v>
       </c>
       <c r="R60" t="n">
-        <v>0.03347349478161837</v>
+        <v>0.0334734947817553</v>
       </c>
       <c r="S60" t="n">
-        <v>0.003836628487412006</v>
+        <v>0.003836628487472946</v>
       </c>
       <c r="T60" t="n">
-        <v>0.001794831548665992</v>
+        <v>0.001794831548694006</v>
       </c>
     </row>
     <row r="61">
@@ -4201,58 +4201,58 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>25.8990620423409</v>
+        <v>25.89906204286075</v>
       </c>
       <c r="D61" t="n">
-        <v>5.793998095960206</v>
+        <v>5.793998095822055</v>
       </c>
       <c r="E61" t="n">
-        <v>0.07123500543184173</v>
+        <v>0.07123500541546716</v>
       </c>
       <c r="F61" t="n">
-        <v>6410.441404151021</v>
+        <v>6410.441404161503</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03382379452697903</v>
+        <v>0.03382379452703433</v>
       </c>
       <c r="H61" t="n">
-        <v>5.895891983058409e-05</v>
+        <v>5.895891983259947e-05</v>
       </c>
       <c r="I61" t="n">
-        <v>2.341345975986477</v>
+        <v>2.341345975974671</v>
       </c>
       <c r="J61" t="n">
-        <v>0.007917312506300905</v>
+        <v>0.007917312506313024</v>
       </c>
       <c r="K61" t="n">
-        <v>4.879912794743521</v>
+        <v>4.879912794789528</v>
       </c>
       <c r="L61" t="n">
-        <v>0.5247465325830297</v>
+        <v>0.5247465326023205</v>
       </c>
       <c r="M61" t="n">
-        <v>493.8742911883767</v>
+        <v>493.8742911774272</v>
       </c>
       <c r="N61" t="n">
-        <v>42.51156178405301</v>
+        <v>42.51156178533932</v>
       </c>
       <c r="O61" t="n">
-        <v>1.966054656707586</v>
+        <v>1.966054656818886</v>
       </c>
       <c r="P61" t="n">
-        <v>0.07207245225639007</v>
+        <v>0.07207245225123865</v>
       </c>
       <c r="Q61" t="n">
-        <v>6.356127081278638e-06</v>
+        <v>6.35612708082232e-06</v>
       </c>
       <c r="R61" t="n">
-        <v>0.03534752403344957</v>
+        <v>0.03534752403233774</v>
       </c>
       <c r="S61" t="n">
-        <v>0.004171128212359479</v>
+        <v>0.004171128211059533</v>
       </c>
       <c r="T61" t="n">
-        <v>0.001974464186999563</v>
+        <v>0.001974464186137291</v>
       </c>
     </row>
     <row r="62">
@@ -4263,58 +4263,58 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>25.3246690786107</v>
+        <v>25.32466907764696</v>
       </c>
       <c r="D62" t="n">
-        <v>5.828045266755564</v>
+        <v>5.828045267011054</v>
       </c>
       <c r="E62" t="n">
-        <v>0.07081857279076145</v>
+        <v>0.07081857279151274</v>
       </c>
       <c r="F62" t="n">
-        <v>6348.406230759291</v>
+        <v>6348.406230739647</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03349647463963264</v>
+        <v>0.03349647463952898</v>
       </c>
       <c r="H62" t="n">
-        <v>6.071175617297806e-05</v>
+        <v>6.071175616927864e-05</v>
       </c>
       <c r="I62" t="n">
-        <v>2.367890666617458</v>
+        <v>2.367890666669882</v>
       </c>
       <c r="J62" t="n">
-        <v>0.008008385772279912</v>
+        <v>0.008008385772451136</v>
       </c>
       <c r="K62" t="n">
-        <v>4.832698402092925</v>
+        <v>4.832698402060876</v>
       </c>
       <c r="L62" t="n">
-        <v>0.541994405430173</v>
+        <v>0.5419944053942969</v>
       </c>
       <c r="M62" t="n">
-        <v>497.2843956070905</v>
+        <v>497.2843956273091</v>
       </c>
       <c r="N62" t="n">
-        <v>43.77195663249032</v>
+        <v>43.77195663014454</v>
       </c>
       <c r="O62" t="n">
-        <v>2.062686774456951</v>
+        <v>2.062686774245865</v>
       </c>
       <c r="P62" t="n">
-        <v>0.07737387793117671</v>
+        <v>0.07737387794025079</v>
       </c>
       <c r="Q62" t="n">
-        <v>6.82404668843744e-06</v>
+        <v>6.824046689241356e-06</v>
       </c>
       <c r="R62" t="n">
-        <v>0.03731161765353195</v>
+        <v>0.03731161765542082</v>
       </c>
       <c r="S62" t="n">
-        <v>0.004521659540055115</v>
+        <v>0.004521659542485228</v>
       </c>
       <c r="T62" t="n">
-        <v>0.002167202637772747</v>
+        <v>0.002167202639396137</v>
       </c>
     </row>
     <row r="63">
@@ -4325,58 +4325,58 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>24.76277887049606</v>
+        <v>24.76277887035581</v>
       </c>
       <c r="D63" t="n">
-        <v>5.859641927506104</v>
+        <v>5.859641927544053</v>
       </c>
       <c r="E63" t="n">
-        <v>0.07040335683315967</v>
+        <v>0.07040335683647321</v>
       </c>
       <c r="F63" t="n">
-        <v>6286.96663481179</v>
+        <v>6286.966634809205</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0331722972330966</v>
+        <v>0.03317229723308296</v>
       </c>
       <c r="H63" t="n">
-        <v>6.245485195908419e-05</v>
+        <v>6.245485195845543e-05</v>
       </c>
       <c r="I63" t="n">
-        <v>2.39350652754676</v>
+        <v>2.393506527550193</v>
       </c>
       <c r="J63" t="n">
-        <v>0.008096278240757843</v>
+        <v>0.00809627824076249</v>
       </c>
       <c r="K63" t="n">
-        <v>4.785928895804952</v>
+        <v>4.785928895798991</v>
       </c>
       <c r="L63" t="n">
-        <v>0.5592419426623164</v>
+        <v>0.559241942656751</v>
       </c>
       <c r="M63" t="n">
-        <v>500.4884505887789</v>
+        <v>500.4884505917627</v>
       </c>
       <c r="N63" t="n">
-        <v>45.02772160832387</v>
+        <v>45.02772160793052</v>
       </c>
       <c r="O63" t="n">
-        <v>2.160997054322343</v>
+        <v>2.16099705429936</v>
       </c>
       <c r="P63" t="n">
-        <v>0.08291384068971859</v>
+        <v>0.08291384069166362</v>
       </c>
       <c r="Q63" t="n">
-        <v>7.313041614184361e-06</v>
+        <v>7.313041614356505e-06</v>
       </c>
       <c r="R63" t="n">
-        <v>0.03936620658885225</v>
+        <v>0.03936620658945992</v>
       </c>
       <c r="S63" t="n">
-        <v>0.0048887646274451</v>
+        <v>0.004888764627797366</v>
       </c>
       <c r="T63" t="n">
-        <v>0.002373408773850675</v>
+        <v>0.002373408774046693</v>
       </c>
     </row>
     <row r="64">
@@ -4387,58 +4387,58 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>24.21369424761652</v>
+        <v>24.2136942489465</v>
       </c>
       <c r="D64" t="n">
-        <v>5.888707745548627</v>
+        <v>5.888707745197842</v>
       </c>
       <c r="E64" t="n">
-        <v>0.06998636290522021</v>
+        <v>0.06998636290803566</v>
       </c>
       <c r="F64" t="n">
-        <v>6226.128771981065</v>
+        <v>6226.128772008819</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03285129478691333</v>
+        <v>0.03285129478705976</v>
       </c>
       <c r="H64" t="n">
-        <v>6.418937226537011e-05</v>
+        <v>6.418937227025944e-05</v>
       </c>
       <c r="I64" t="n">
-        <v>2.418179919963221</v>
+        <v>2.418179919884736</v>
       </c>
       <c r="J64" t="n">
-        <v>0.008180956491377468</v>
+        <v>0.008180956491112506</v>
       </c>
       <c r="K64" t="n">
-        <v>4.739622994542707</v>
+        <v>4.739622994582888</v>
       </c>
       <c r="L64" t="n">
-        <v>0.5765004012723242</v>
+        <v>0.5765004013209799</v>
       </c>
       <c r="M64" t="n">
-        <v>503.4800921900998</v>
+        <v>503.4800921622961</v>
       </c>
       <c r="N64" t="n">
-        <v>46.27959696592642</v>
+        <v>46.27959696904196</v>
       </c>
       <c r="O64" t="n">
-        <v>2.261051440038106</v>
+        <v>2.261051440347623</v>
       </c>
       <c r="P64" t="n">
-        <v>0.08868945254850466</v>
+        <v>0.08868945253744426</v>
       </c>
       <c r="Q64" t="n">
-        <v>7.822856008223183e-06</v>
+        <v>7.822856007242871e-06</v>
       </c>
       <c r="R64" t="n">
-        <v>0.04151068580615806</v>
+        <v>0.04151068580433919</v>
       </c>
       <c r="S64" t="n">
-        <v>0.005271682306704713</v>
+        <v>0.005271682303350121</v>
       </c>
       <c r="T64" t="n">
-        <v>0.002592574539432319</v>
+        <v>0.002592574537097345</v>
       </c>
     </row>
     <row r="65">
@@ -4449,58 +4449,58 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>23.6768756755617</v>
+        <v>23.676875674731</v>
       </c>
       <c r="D65" t="n">
-        <v>5.915385173460174</v>
+        <v>5.915385173679089</v>
       </c>
       <c r="E65" t="n">
-        <v>0.06956764053830913</v>
+        <v>0.06956764053991796</v>
       </c>
       <c r="F65" t="n">
-        <v>6165.881437960817</v>
+        <v>6165.881437943424</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03253340818313288</v>
+        <v>0.0325334081830411</v>
       </c>
       <c r="H65" t="n">
-        <v>6.591331683394239e-05</v>
+        <v>6.59133168309157e-05</v>
       </c>
       <c r="I65" t="n">
-        <v>2.441941260717774</v>
+        <v>2.441941260763375</v>
       </c>
       <c r="J65" t="n">
-        <v>0.008262522284691529</v>
+        <v>0.008262522284847558</v>
       </c>
       <c r="K65" t="n">
-        <v>4.69376664195675</v>
+        <v>4.693766641947589</v>
       </c>
       <c r="L65" t="n">
-        <v>0.5937499889222657</v>
+        <v>0.5937499888920584</v>
       </c>
       <c r="M65" t="n">
-        <v>506.2706054486613</v>
+        <v>506.2706054660043</v>
       </c>
       <c r="N65" t="n">
-        <v>47.52630847004164</v>
+        <v>47.52630846810614</v>
       </c>
       <c r="O65" t="n">
-        <v>2.362725976732803</v>
+        <v>2.362725976538574</v>
       </c>
       <c r="P65" t="n">
-        <v>0.0947053249874945</v>
+        <v>0.09470532499426616</v>
       </c>
       <c r="Q65" t="n">
-        <v>8.353898557077304e-06</v>
+        <v>8.35389855767753e-06</v>
       </c>
       <c r="R65" t="n">
-        <v>0.04374586468029878</v>
+        <v>0.04374586468140371</v>
       </c>
       <c r="S65" t="n">
-        <v>0.005671774542060992</v>
+        <v>0.005671774544164879</v>
       </c>
       <c r="T65" t="n">
-        <v>0.002825638817990308</v>
+        <v>0.002825638819453176</v>
       </c>
     </row>
     <row r="66">
@@ -4511,58 +4511,58 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>23.15175536360378</v>
+        <v>23.15175536224849</v>
       </c>
       <c r="D66" t="n">
-        <v>5.939824124296969</v>
+        <v>5.939824124653592</v>
       </c>
       <c r="E66" t="n">
-        <v>0.06914724185783272</v>
+        <v>0.06914724185910458</v>
       </c>
       <c r="F66" t="n">
-        <v>6106.212841656525</v>
+        <v>6106.212841627956</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03221857520769959</v>
+        <v>0.03221857520754885</v>
       </c>
       <c r="H66" t="n">
-        <v>6.762458065006364e-05</v>
+        <v>6.762458064518974e-05</v>
       </c>
       <c r="I66" t="n">
-        <v>2.464822559642597</v>
+        <v>2.464822559719011</v>
       </c>
       <c r="J66" t="n">
-        <v>0.008341082710622717</v>
+        <v>0.008341082710883088</v>
       </c>
       <c r="K66" t="n">
-        <v>4.648345045543168</v>
+        <v>4.648345045522087</v>
       </c>
       <c r="L66" t="n">
-        <v>0.610969876716443</v>
+        <v>0.6109698766674269</v>
       </c>
       <c r="M66" t="n">
-        <v>508.8718664183241</v>
+        <v>508.8718664465973</v>
       </c>
       <c r="N66" t="n">
-        <v>48.76651515158635</v>
+        <v>48.7665151484647</v>
       </c>
       <c r="O66" t="n">
-        <v>2.465890217811522</v>
+        <v>2.465890217489599</v>
       </c>
       <c r="P66" t="n">
-        <v>0.1009663109975489</v>
+        <v>0.1009663110081324</v>
       </c>
       <c r="Q66" t="n">
-        <v>8.906599350865393e-06</v>
+        <v>8.906599351803636e-06</v>
       </c>
       <c r="R66" t="n">
-        <v>0.04607259497443537</v>
+        <v>0.04607259497599597</v>
       </c>
       <c r="S66" t="n">
-        <v>0.006090474626080434</v>
+        <v>0.006090474629508362</v>
       </c>
       <c r="T66" t="n">
-        <v>0.00307358966389157</v>
+        <v>0.003073589666303589</v>
       </c>
     </row>
     <row r="67">
@@ -4573,58 +4573,58 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>22.6387044891036</v>
+        <v>22.63870448783936</v>
       </c>
       <c r="D67" t="n">
-        <v>5.961926596577414</v>
+        <v>5.961926596909039</v>
       </c>
       <c r="E67" t="n">
-        <v>0.06872513278825965</v>
+        <v>0.06872513278881008</v>
       </c>
       <c r="F67" t="n">
-        <v>6047.130691167549</v>
+        <v>6047.130691140531</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03190683653131809</v>
+        <v>0.03190683653117554</v>
       </c>
       <c r="H67" t="n">
-        <v>6.932453980843999e-05</v>
+        <v>6.932453980402013e-05</v>
       </c>
       <c r="I67" t="n">
-        <v>2.486802891202194</v>
+        <v>2.486802891275211</v>
       </c>
       <c r="J67" t="n">
-        <v>0.008416567762119265</v>
+        <v>0.008416567762368845</v>
       </c>
       <c r="K67" t="n">
-        <v>4.603367875489046</v>
+        <v>4.6033678754697</v>
       </c>
       <c r="L67" t="n">
-        <v>0.6281736809648015</v>
+        <v>0.6281736809196474</v>
       </c>
       <c r="M67" t="n">
-        <v>511.2761114599285</v>
+        <v>511.2761114862489</v>
       </c>
       <c r="N67" t="n">
-        <v>50.00109363171843</v>
+        <v>50.00109362887494</v>
       </c>
       <c r="O67" t="n">
-        <v>2.570629439099414</v>
+        <v>2.57062943878995</v>
       </c>
       <c r="P67" t="n">
-        <v>0.1074692380711724</v>
+        <v>0.1074692380801645</v>
       </c>
       <c r="Q67" t="n">
-        <v>9.48067723016137e-06</v>
+        <v>9.48067723095883e-06</v>
       </c>
       <c r="R67" t="n">
-        <v>0.04849031987214473</v>
+        <v>0.04849031987316957</v>
       </c>
       <c r="S67" t="n">
-        <v>0.006526845583701516</v>
+        <v>0.006526845586897642</v>
       </c>
       <c r="T67" t="n">
-        <v>0.00333578116413629</v>
+        <v>0.003335781166432356</v>
       </c>
     </row>
     <row r="68">
@@ -4635,58 +4635,58 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>22.6387044891036</v>
+        <v>22.63870448783936</v>
       </c>
       <c r="D68" t="n">
-        <v>5.961926596577414</v>
+        <v>5.961926596909039</v>
       </c>
       <c r="E68" t="n">
-        <v>0.06872513278825965</v>
+        <v>0.06872513278881008</v>
       </c>
       <c r="F68" t="n">
-        <v>6047.130691167549</v>
+        <v>6047.130691140531</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03190683653131809</v>
+        <v>0.03190683653117554</v>
       </c>
       <c r="H68" t="n">
-        <v>6.932453980843999e-05</v>
+        <v>6.932453980402013e-05</v>
       </c>
       <c r="I68" t="n">
-        <v>2.486802891202194</v>
+        <v>2.486802891275211</v>
       </c>
       <c r="J68" t="n">
-        <v>0.008416567762119265</v>
+        <v>0.008416567762368845</v>
       </c>
       <c r="K68" t="n">
-        <v>4.603367875489046</v>
+        <v>4.6033678754697</v>
       </c>
       <c r="L68" t="n">
-        <v>0.6281736809648015</v>
+        <v>0.6281736809196474</v>
       </c>
       <c r="M68" t="n">
-        <v>511.2761114599285</v>
+        <v>511.2761114862489</v>
       </c>
       <c r="N68" t="n">
-        <v>50.00109363171843</v>
+        <v>50.00109362887494</v>
       </c>
       <c r="O68" t="n">
-        <v>2.570629439099414</v>
+        <v>2.57062943878995</v>
       </c>
       <c r="P68" t="n">
-        <v>0.1074692380711724</v>
+        <v>0.1074692380801645</v>
       </c>
       <c r="Q68" t="n">
-        <v>9.48067723016137e-06</v>
+        <v>9.48067723095883e-06</v>
       </c>
       <c r="R68" t="n">
-        <v>0.04849031987214473</v>
+        <v>0.04849031987316957</v>
       </c>
       <c r="S68" t="n">
-        <v>0.006526845583701516</v>
+        <v>0.006526845586897642</v>
       </c>
       <c r="T68" t="n">
-        <v>0.00333578116413629</v>
+        <v>0.003335781166432356</v>
       </c>
     </row>
     <row r="69">
@@ -4697,58 +4697,58 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>22.63870448905289</v>
+        <v>22.63870448778865</v>
       </c>
       <c r="D69" t="n">
-        <v>5.96192659658812</v>
+        <v>5.961926596919747</v>
       </c>
       <c r="E69" t="n">
-        <v>0.02461198838652842</v>
+        <v>0.02461198838723502</v>
       </c>
       <c r="F69" t="n">
-        <v>6047.130691161673</v>
+        <v>6047.130691134656</v>
       </c>
       <c r="G69" t="n">
-        <v>3.190754853110396e-12</v>
+        <v>3.190754853096141e-12</v>
       </c>
       <c r="H69" t="n">
-        <v>6.932453120994574e-05</v>
+        <v>6.932453120552599e-05</v>
       </c>
       <c r="I69" t="n">
-        <v>2.530915931952105</v>
+        <v>2.530915932024968</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0003185400014433096</v>
+        <v>0.0003185400039757247</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2445554319271737</v>
+        <v>0.2445554330358476</v>
       </c>
       <c r="L69" t="n">
-        <v>0.6362716615544146</v>
+        <v>0.6362716615069776</v>
       </c>
       <c r="M69" t="n">
-        <v>515.6668163139292</v>
+        <v>515.6668163391221</v>
       </c>
       <c r="N69" t="n">
-        <v>50.0010936318402</v>
+        <v>50.00109362899671</v>
       </c>
       <c r="O69" t="n">
-        <v>2.567217880219729</v>
+        <v>2.567217879910675</v>
       </c>
       <c r="P69" t="n">
-        <v>0.1074692380718346</v>
+        <v>0.1074692380808268</v>
       </c>
       <c r="Q69" t="n">
-        <v>9.502237972893864e-16</v>
+        <v>9.502239962609787e-16</v>
       </c>
       <c r="R69" t="n">
-        <v>0.05189967647056244</v>
+        <v>0.05189967647117651</v>
       </c>
       <c r="S69" t="n">
-        <v>0.006526845583748326</v>
+        <v>0.006526845586944455</v>
       </c>
       <c r="T69" t="n">
-        <v>0.003345261841392538</v>
+        <v>0.003345261843689401</v>
       </c>
     </row>
     <row r="70">
@@ -4759,58 +4759,58 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>22.63870448900215</v>
+        <v>22.63870448773792</v>
       </c>
       <c r="D70" t="n">
-        <v>5.961926596598818</v>
+        <v>5.961926596930445</v>
       </c>
       <c r="E70" t="n">
-        <v>0.008814467123431577</v>
+        <v>0.008814467038782836</v>
       </c>
       <c r="F70" t="n">
-        <v>6047.130691155796</v>
+        <v>6047.130691128779</v>
       </c>
       <c r="G70" t="n">
-        <v>3.190754853107468e-12</v>
+        <v>3.190754853093211e-12</v>
       </c>
       <c r="H70" t="n">
-        <v>6.932452261145653e-05</v>
+        <v>6.932452260703682e-05</v>
       </c>
       <c r="I70" t="n">
-        <v>2.546713416097333</v>
+        <v>2.546713416255552</v>
       </c>
       <c r="J70" t="n">
-        <v>1.207369309705413e-05</v>
+        <v>1.207367265724033e-05</v>
       </c>
       <c r="K70" t="n">
-        <v>0.01291806041440171</v>
+        <v>0.01291804729974017</v>
       </c>
       <c r="L70" t="n">
-        <v>0.6365781260793193</v>
+        <v>0.6365781260548544</v>
       </c>
       <c r="M70" t="n">
-        <v>515.8984529341263</v>
+        <v>515.8984529735426</v>
       </c>
       <c r="N70" t="n">
-        <v>50.00109363196122</v>
+        <v>50.00109362911772</v>
       </c>
       <c r="O70" t="n">
-        <v>2.563810848921443</v>
+        <v>2.563810848612798</v>
       </c>
       <c r="P70" t="n">
-        <v>0.1074692380724958</v>
+        <v>0.1074692380814879</v>
       </c>
       <c r="Q70" t="n">
-        <v>9.502075271830293e-16</v>
+        <v>9.502075266039857e-16</v>
       </c>
       <c r="R70" t="n">
-        <v>0.05530435602850747</v>
+        <v>0.05530435602871134</v>
       </c>
       <c r="S70" t="n">
-        <v>0.006526845583799561</v>
+        <v>0.00652684558699569</v>
       </c>
       <c r="T70" t="n">
-        <v>0.003345261841419575</v>
+        <v>0.003345261843716439</v>
       </c>
     </row>
     <row r="71">
@@ -4821,58 +4821,58 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>22.63870448895142</v>
+        <v>22.63870448768719</v>
       </c>
       <c r="D71" t="n">
-        <v>5.961926596609516</v>
+        <v>5.961926596941145</v>
       </c>
       <c r="E71" t="n">
-        <v>0.003156589701848817</v>
+        <v>0.003156589671249102</v>
       </c>
       <c r="F71" t="n">
-        <v>6047.130691149915</v>
+        <v>6047.130691122898</v>
       </c>
       <c r="G71" t="n">
-        <v>3.190754853104365e-12</v>
+        <v>3.190754853090109e-12</v>
       </c>
       <c r="H71" t="n">
-        <v>6.93245140129698e-05</v>
+        <v>6.932451400855007e-05</v>
       </c>
       <c r="I71" t="n">
-        <v>2.552371280226432</v>
+        <v>2.552371280330602</v>
       </c>
       <c r="J71" t="n">
-        <v>4.529508324314155e-07</v>
+        <v>4.529501391549266e-07</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0006781343529331192</v>
+        <v>0.0006781337024016087</v>
       </c>
       <c r="L71" t="n">
-        <v>0.6365897467556949</v>
+        <v>0.6365897467114836</v>
       </c>
       <c r="M71" t="n">
-        <v>515.9106928207007</v>
+        <v>515.9106928476526</v>
       </c>
       <c r="N71" t="n">
-        <v>50.00109363208222</v>
+        <v>50.00109362923872</v>
       </c>
       <c r="O71" t="n">
-        <v>2.560408339195875</v>
+        <v>2.56040833888764</v>
       </c>
       <c r="P71" t="n">
-        <v>0.1074692380731558</v>
+        <v>0.1074692380821479</v>
       </c>
       <c r="Q71" t="n">
-        <v>9.501955938117845e-16</v>
+        <v>9.50195593791822e-16</v>
       </c>
       <c r="R71" t="n">
-        <v>0.05870436475969727</v>
+        <v>0.05870436475949149</v>
       </c>
       <c r="S71" t="n">
-        <v>0.006526845583855211</v>
+        <v>0.006526845587051341</v>
       </c>
       <c r="T71" t="n">
-        <v>0.003345261841446612</v>
+        <v>0.003345261843743477</v>
       </c>
     </row>
     <row r="72">
@@ -4883,58 +4883,58 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>22.63870448890069</v>
+        <v>22.63870448763645</v>
       </c>
       <c r="D72" t="n">
-        <v>5.961926596620216</v>
+        <v>5.961926596951846</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001130446061168402</v>
+        <v>0.001130446051202156</v>
       </c>
       <c r="F72" t="n">
-        <v>6047.130691144034</v>
+        <v>6047.130691117017</v>
       </c>
       <c r="G72" t="n">
-        <v>3.190754853101261e-12</v>
+        <v>3.190754853087006e-12</v>
       </c>
       <c r="H72" t="n">
-        <v>6.932450541448461e-05</v>
+        <v>6.932450541006488e-05</v>
       </c>
       <c r="I72" t="n">
-        <v>2.554397419108208</v>
+        <v>2.554397419191744</v>
       </c>
       <c r="J72" t="n">
-        <v>1.726239780384806e-08</v>
+        <v>1.726236917586848e-08</v>
       </c>
       <c r="K72" t="n">
-        <v>3.58940531041089e-05</v>
+        <v>3.589402008478094e-05</v>
       </c>
       <c r="L72" t="n">
-        <v>0.6365901824434002</v>
+        <v>0.6365901823985239</v>
       </c>
       <c r="M72" t="n">
-        <v>515.9113350591414</v>
+        <v>515.9113350854761</v>
       </c>
       <c r="N72" t="n">
-        <v>50.00109363220319</v>
+        <v>50.00109362935969</v>
       </c>
       <c r="O72" t="n">
-        <v>2.557010345042311</v>
+        <v>2.557010344734485</v>
       </c>
       <c r="P72" t="n">
-        <v>0.1074692380738148</v>
+        <v>0.107469238082807</v>
       </c>
       <c r="Q72" t="n">
-        <v>9.501959280205883e-16</v>
+        <v>9.50195928170972e-16</v>
       </c>
       <c r="R72" t="n">
-        <v>0.06209970886960903</v>
+        <v>0.06209970886899422</v>
       </c>
       <c r="S72" t="n">
-        <v>0.006526845583915272</v>
+        <v>0.006526845587111401</v>
       </c>
       <c r="T72" t="n">
-        <v>0.003345261841473649</v>
+        <v>0.003345261843770514</v>
       </c>
     </row>
     <row r="73">
@@ -4945,58 +4945,58 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>22.63870448884996</v>
+        <v>22.63870448758572</v>
       </c>
       <c r="D73" t="n">
-        <v>5.961926596630916</v>
+        <v>5.961926596962548</v>
       </c>
       <c r="E73" t="n">
-        <v>0.000404833910609233</v>
+        <v>0.0004048339070122817</v>
       </c>
       <c r="F73" t="n">
-        <v>6047.130691138153</v>
+        <v>6047.130691111135</v>
       </c>
       <c r="G73" t="n">
-        <v>3.190754853098158e-12</v>
+        <v>3.190754853083904e-12</v>
       </c>
       <c r="H73" t="n">
-        <v>6.932449681600065e-05</v>
+        <v>6.932449681158092e-05</v>
       </c>
       <c r="I73" t="n">
-        <v>2.555123029555755</v>
+        <v>2.555123029632921</v>
       </c>
       <c r="J73" t="n">
-        <v>6.521784755738696e-10</v>
+        <v>6.521773968636398e-10</v>
       </c>
       <c r="K73" t="n">
-        <v>1.890778402463151e-06</v>
+        <v>1.890776686499926e-06</v>
       </c>
       <c r="L73" t="n">
-        <v>0.6365901990553324</v>
+        <v>0.6365901990104289</v>
       </c>
       <c r="M73" t="n">
-        <v>515.9113690625305</v>
+        <v>515.9113690888338</v>
       </c>
       <c r="N73" t="n">
-        <v>50.00109363232416</v>
+        <v>50.00109362948066</v>
       </c>
       <c r="O73" t="n">
-        <v>2.553616860468001</v>
+        <v>2.553616860160584</v>
       </c>
       <c r="P73" t="n">
-        <v>0.1074692380744728</v>
+        <v>0.107469238083465</v>
       </c>
       <c r="Q73" t="n">
-        <v>9.50195821958499e-16</v>
+        <v>9.501958220498905e-16</v>
       </c>
       <c r="R73" t="n">
-        <v>0.0654903945554846</v>
+        <v>0.06549039455446128</v>
       </c>
       <c r="S73" t="n">
-        <v>0.006526845583979738</v>
+        <v>0.006526845587175866</v>
       </c>
       <c r="T73" t="n">
-        <v>0.003345261841500687</v>
+        <v>0.003345261843797552</v>
       </c>
     </row>
     <row r="74">
@@ -5007,58 +5007,58 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>22.63870448879923</v>
+        <v>22.638704487535</v>
       </c>
       <c r="D74" t="n">
-        <v>5.961926596641619</v>
+        <v>5.96192659697325</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0001449778836804102</v>
+        <v>0.0001449778819662576</v>
       </c>
       <c r="F74" t="n">
-        <v>6047.130691132275</v>
+        <v>6047.130691105259</v>
       </c>
       <c r="G74" t="n">
-        <v>3.190754853095056e-12</v>
+        <v>3.190754853080801e-12</v>
       </c>
       <c r="H74" t="n">
-        <v>6.932448821751785e-05</v>
+        <v>6.93244882130981e-05</v>
       </c>
       <c r="I74" t="n">
-        <v>2.55538288497407</v>
+        <v>2.555382885049354</v>
       </c>
       <c r="J74" t="n">
-        <v>2.53652821231283e-11</v>
+        <v>2.536522179672635e-11</v>
       </c>
       <c r="K74" t="n">
-        <v>9.983506380159847e-08</v>
+        <v>9.983491372987915e-08</v>
       </c>
       <c r="L74" t="n">
-        <v>0.6365901996839521</v>
+        <v>0.6365901996390477</v>
       </c>
       <c r="M74" t="n">
-        <v>515.9113708536928</v>
+        <v>515.9113708799947</v>
       </c>
       <c r="N74" t="n">
-        <v>50.00109363244514</v>
+        <v>50.00109362960164</v>
       </c>
       <c r="O74" t="n">
-        <v>2.550227879488148</v>
+        <v>2.550227879181138</v>
       </c>
       <c r="P74" t="n">
-        <v>0.1074692380751298</v>
+        <v>0.1074692380841219</v>
       </c>
       <c r="Q74" t="n">
-        <v>9.501958433416301e-16</v>
+        <v>9.501958434216289e-16</v>
       </c>
       <c r="R74" t="n">
-        <v>0.0688764280063409</v>
+        <v>0.06887642800490965</v>
       </c>
       <c r="S74" t="n">
-        <v>0.006526845584048602</v>
+        <v>0.00652684558724473</v>
       </c>
       <c r="T74" t="n">
-        <v>0.003345261841527724</v>
+        <v>0.003345261843824589</v>
       </c>
     </row>
   </sheetData>
